--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A57C882-8778-4D03-970E-29EF98025F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB11F9-EF44-47E7-B920-B51903A86EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7215" yWindow="-20985" windowWidth="34335" windowHeight="19365" activeTab="1" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
+    <workbookView xWindow="15225" yWindow="-20805" windowWidth="20880" windowHeight="19365" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="2" r:id="rId1"/>
     <sheet name="Response Element Mapping" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Request Element Mapping'!$A$2:$E$100</definedName>
@@ -1572,9 +1571,6 @@
     <t>TransactionResult.Transaction_Error</t>
   </si>
   <si>
-    <t>Payeezy Gateway Response Element List</t>
-  </si>
-  <si>
     <t>Payeezy Gateway Direct Specific Values</t>
   </si>
   <si>
@@ -1707,6 +1703,9 @@
   </si>
   <si>
     <t>No transformation required.</t>
+  </si>
+  <si>
+    <t>Payeezy Gateway Direct Response Element</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1773,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1790,12 +1789,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2025,7 +2018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2037,14 +2030,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2137,7 +2127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2158,7 +2148,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2929,159 +2919,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439F1F15-D443-4604-BD21-4221524F45CB}">
   <dimension ref="A1:CN100"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87:E87"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="100.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="43" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:92" s="6" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:92" s="6" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="34" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:92" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="29" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="33" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:92" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="33" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="33" t="s">
         <v>290</v>
       </c>
       <c r="F9" s="4"/>
@@ -3173,250 +3163,250 @@
       <c r="CN9" s="4"/>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="33" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="33" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:92" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="33" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="33" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="33" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="33" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="33" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="33" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="33" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="33" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="33" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="33" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="33" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="33" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>290</v>
       </c>
       <c r="F25"/>
@@ -3508,122 +3498,122 @@
       <c r="CN25"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="29" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="33" t="s">
+      <c r="C27" s="21"/>
+      <c r="D27" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="34" t="s">
+      <c r="E27" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="34" t="s">
+      <c r="E28" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="33" t="s">
+      <c r="C29" s="21"/>
+      <c r="D29" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="34" t="s">
+      <c r="E29" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="34" t="s">
+      <c r="E30" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="33" t="s">
+      <c r="C31" s="21"/>
+      <c r="D31" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E31" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="32" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="33" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39" t="s">
+      <c r="C33" s="37"/>
+      <c r="D33" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>288</v>
       </c>
       <c r="F33"/>
@@ -3715,882 +3705,882 @@
       <c r="CN33"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="33" t="s">
+      <c r="C34" s="21"/>
+      <c r="D34" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="33" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="33" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="33" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="33" t="s">
+      <c r="C38" s="21"/>
+      <c r="D38" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="34" t="s">
+      <c r="E38" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="33" t="s">
+      <c r="C39" s="21"/>
+      <c r="D39" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="34" t="s">
+      <c r="E39" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="33" t="s">
+      <c r="C40" s="21"/>
+      <c r="D40" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="34" t="s">
+      <c r="E40" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="33" t="s">
+      <c r="C41" s="21"/>
+      <c r="D41" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="22"/>
-      <c r="D42" s="33" t="s">
+      <c r="C42" s="21"/>
+      <c r="D42" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="33" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A43" s="20" t="s">
+      <c r="A43" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="33" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="44" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="33" t="s">
+      <c r="C44" s="21"/>
+      <c r="D44" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="33" t="s">
+      <c r="C45" s="21"/>
+      <c r="D45" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A46" s="20" t="s">
+      <c r="A46" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="22"/>
-      <c r="D46" s="33" t="s">
+      <c r="C46" s="21"/>
+      <c r="D46" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="33" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="48" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="33" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="33" t="s">
+      <c r="C49" s="21"/>
+      <c r="D49" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="33" t="s">
+      <c r="C50" s="21"/>
+      <c r="D50" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="232" x14ac:dyDescent="0.35">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="33" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="22"/>
-      <c r="D52" s="33" t="s">
+      <c r="C52" s="21"/>
+      <c r="D52" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E52" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="33" t="s">
+      <c r="C53" s="21"/>
+      <c r="D53" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="33" t="s">
+      <c r="C54" s="21"/>
+      <c r="D54" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="34" t="s">
+      <c r="E54" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="33" t="s">
+      <c r="C55" s="21"/>
+      <c r="D55" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="34" t="s">
+      <c r="E55" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="33" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="34" t="s">
+      <c r="E56" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="33" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="34" t="s">
+      <c r="E57" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="33" t="s">
+      <c r="C58" s="21"/>
+      <c r="D58" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="34" t="s">
+      <c r="E58" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="33" t="s">
+      <c r="C59" s="21"/>
+      <c r="D59" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="33" t="s">
+      <c r="C60" s="21"/>
+      <c r="D60" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="34" t="s">
+      <c r="E60" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="33" t="s">
+      <c r="C61" s="21"/>
+      <c r="D61" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="34" t="s">
+      <c r="E61" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="33" t="s">
+      <c r="C62" s="21"/>
+      <c r="D62" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="34" t="s">
+      <c r="E62" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="33" t="s">
+      <c r="C63" s="21"/>
+      <c r="D63" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="34" t="s">
+      <c r="E63" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="33" t="s">
+      <c r="C64" s="21"/>
+      <c r="D64" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E64" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="33" t="s">
+      <c r="C65" s="21"/>
+      <c r="D65" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="34" t="s">
+      <c r="E65" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="33" t="s">
+      <c r="C66" s="21"/>
+      <c r="D66" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="34" t="s">
+      <c r="E66" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="20" t="s">
+      <c r="A67" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="33" t="s">
+      <c r="C67" s="21"/>
+      <c r="D67" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="34" t="s">
+      <c r="E67" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="20" t="s">
+      <c r="A68" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="22"/>
-      <c r="D68" s="33" t="s">
+      <c r="C68" s="21"/>
+      <c r="D68" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="34" t="s">
+      <c r="E68" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
+      <c r="A69" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="E69" s="34" t="s">
+      <c r="E69" s="33" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="22"/>
-      <c r="D70" s="33" t="s">
+      <c r="C70" s="21"/>
+      <c r="D70" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="E70" s="34" t="s">
+      <c r="E70" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="20" t="s">
+      <c r="A71" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="B71" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="34" t="s">
+      <c r="E71" s="33" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="34" t="s">
+      <c r="E72" s="33" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="33" t="s">
+      <c r="C73" s="21"/>
+      <c r="D73" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="E73" s="34" t="s">
+      <c r="E73" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="33" t="s">
+      <c r="C74" s="21"/>
+      <c r="D74" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="34" t="s">
+      <c r="E74" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="33" t="s">
+      <c r="C75" s="21"/>
+      <c r="D75" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E75" s="34" t="s">
+      <c r="E75" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="20" t="s">
+      <c r="A76" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="22"/>
-      <c r="D76" s="33" t="s">
+      <c r="C76" s="21"/>
+      <c r="D76" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="E76" s="34" t="s">
+      <c r="E76" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="20" t="s">
+      <c r="A77" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="22"/>
-      <c r="D77" s="42" t="s">
+      <c r="C77" s="21"/>
+      <c r="D77" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="E77" s="34" t="s">
+      <c r="E77" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="20" t="s">
+      <c r="A78" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="22"/>
-      <c r="D78" s="33" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E78" s="34" t="s">
+      <c r="E78" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="20" t="s">
+      <c r="A79" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="22"/>
-      <c r="D79" s="33" t="s">
+      <c r="C79" s="21"/>
+      <c r="D79" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="34" t="s">
+      <c r="E79" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="20" t="s">
+      <c r="A80" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="B80" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="22"/>
-      <c r="D80" s="33" t="s">
+      <c r="C80" s="21"/>
+      <c r="D80" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="E80" s="34" t="s">
+      <c r="E80" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="22"/>
-      <c r="D81" s="33" t="s">
+      <c r="C81" s="21"/>
+      <c r="D81" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="34" t="s">
+      <c r="E81" s="33" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="82" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B82" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="22"/>
-      <c r="D82" s="33" t="s">
+      <c r="C82" s="21"/>
+      <c r="D82" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="E82" s="34" t="s">
+      <c r="E82" s="33" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A83" s="20" t="s">
+      <c r="A83" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="33" t="s">
+      <c r="C83" s="23"/>
+      <c r="D83" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="34" t="s">
+      <c r="E83" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A84" s="20" t="s">
+      <c r="A84" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="B84" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="33" t="s">
+      <c r="C84" s="21"/>
+      <c r="D84" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="85" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A85" s="20" t="s">
+      <c r="A85" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="33" t="s">
+      <c r="C85" s="21"/>
+      <c r="D85" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="34" t="s">
+      <c r="E85" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A86" s="20" t="s">
+      <c r="A86" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="33" t="s">
+      <c r="C86" s="21"/>
+      <c r="D86" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="34" t="s">
+      <c r="E86" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="20" t="s">
+      <c r="A87" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="34" t="s">
+      <c r="E87" s="33" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A88" s="20" t="s">
+      <c r="A88" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="B88" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="22"/>
-      <c r="D88" s="33" t="s">
+      <c r="C88" s="21"/>
+      <c r="D88" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="34" t="s">
+      <c r="E88" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="89" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A89" s="20" t="s">
+      <c r="A89" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="33" t="s">
+      <c r="C89" s="21"/>
+      <c r="D89" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E89" s="34" t="s">
+      <c r="E89" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="90" spans="1:92" ht="58" x14ac:dyDescent="0.35">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="B90" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="22" t="s">
+      <c r="C90" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="D90" s="33" t="s">
+      <c r="D90" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="34" t="s">
+      <c r="E90" s="33" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="B91" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="33" t="s">
+      <c r="C91" s="21"/>
+      <c r="D91" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="E91" s="34" t="s">
+      <c r="E91" s="33" t="s">
         <v>290</v>
       </c>
       <c r="F91"/>
@@ -4682,135 +4672,135 @@
       <c r="CN91"/>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A92" s="20" t="s">
+      <c r="A92" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="33" t="s">
+      <c r="C92" s="21"/>
+      <c r="D92" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="34" t="s">
+      <c r="E92" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="B93" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="33" t="s">
+      <c r="C93" s="21"/>
+      <c r="D93" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="34" t="s">
+      <c r="E93" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A94" s="20" t="s">
+      <c r="A94" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="33" t="s">
+      <c r="C94" s="21"/>
+      <c r="D94" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="34" t="s">
+      <c r="E94" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="22"/>
-      <c r="D95" s="33" t="s">
+      <c r="C95" s="21"/>
+      <c r="D95" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="34" t="s">
+      <c r="E95" s="33" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A96" s="20" t="s">
+      <c r="A96" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="22"/>
-      <c r="D96" s="33" t="s">
+      <c r="B96" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="21"/>
+      <c r="D96" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="34" t="s">
+      <c r="E96" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="22"/>
-      <c r="D97" s="33" t="s">
+      <c r="B97" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="34" t="s">
+      <c r="E97" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="33" t="s">
+      <c r="C98" s="21"/>
+      <c r="D98" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="34" t="s">
+      <c r="E98" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="20" t="s">
+      <c r="A99" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="33" t="s">
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="34" t="s">
+      <c r="E99" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="26" t="s">
+      <c r="A100" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="28"/>
-      <c r="D100" s="29" t="s">
+      <c r="C100" s="27"/>
+      <c r="D100" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="E100" s="34" t="s">
+      <c r="E100" s="33" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4832,1904 +4822,1904 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A10033-FA02-4621-BCA6-E2FC6A173885}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="50.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" style="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" style="44" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.08984375" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="109.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="85.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="44"/>
+    <col min="6" max="16384" width="8.7265625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="49" t="s">
+      <c r="D2" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>474</v>
+      </c>
+      <c r="C3" s="51" t="s">
         <v>477</v>
       </c>
-      <c r="D2" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="C3" s="52" t="s">
+      <c r="D3" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="E3" s="34" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>472</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
-        <v>472</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="D4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>481</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" s="47"/>
+      <c r="D10" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>491</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>494</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>443</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C16" s="47"/>
+      <c r="D16" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" s="47"/>
+      <c r="D17" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>426</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="47"/>
+      <c r="D21" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="C22" s="47"/>
+      <c r="D22" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="47"/>
+      <c r="D24" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="47"/>
+      <c r="D26" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="47"/>
+      <c r="D27" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" s="33"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="47"/>
+      <c r="D29" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="47"/>
+      <c r="D30" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="E31" s="33"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
+        <v>405</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="47"/>
+      <c r="D35" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E35" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="47"/>
+      <c r="D37" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
+        <v>398</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="47"/>
+      <c r="D39" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="47"/>
+      <c r="D42" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="47"/>
+      <c r="D44" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B46" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
+        <v>386</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="47"/>
+      <c r="D47" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B48" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="47"/>
+      <c r="D50" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B52" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="47"/>
+      <c r="D52" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="47"/>
+      <c r="D53" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="47"/>
+      <c r="D57" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="47"/>
+      <c r="D58" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="47"/>
+      <c r="D60" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="47"/>
+      <c r="D61" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>368</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="B64" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="47"/>
+      <c r="D64" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="B65" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E69" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="B70" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="47"/>
+      <c r="D70" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="47"/>
+      <c r="D71" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="47"/>
+      <c r="D72" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="47"/>
+      <c r="D73" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="47"/>
+      <c r="D74" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="47"/>
+      <c r="D75" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="47"/>
+      <c r="D76" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="47"/>
+      <c r="D77" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="47"/>
+      <c r="D78" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="47"/>
+      <c r="D79" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B80" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="47"/>
+      <c r="D80" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="B81" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="47"/>
+      <c r="D81" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="47"/>
+      <c r="D82" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="47"/>
+      <c r="D83" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="47"/>
+      <c r="D85" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="47"/>
+      <c r="D86" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="47"/>
+      <c r="D87" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88" s="47"/>
+      <c r="D88" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A89" s="33" t="s">
+        <v>340</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="47"/>
+      <c r="D90" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E90" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B91" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="47"/>
+      <c r="D91" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B92" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="47"/>
+      <c r="D92" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="B93" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="47"/>
+      <c r="D93" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="47"/>
+      <c r="D94" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="E94" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="47"/>
+      <c r="D95" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="47"/>
+      <c r="D96" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E96" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="47"/>
+      <c r="D97" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E97" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="47"/>
+      <c r="D98" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="47"/>
+      <c r="D99" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="B100" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="C100" s="47"/>
+      <c r="D100" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="B101" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="C101" s="47"/>
+      <c r="D101" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B103" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" s="47"/>
+      <c r="D103" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="47"/>
+      <c r="D104" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="47" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="47"/>
+      <c r="D105" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="47"/>
+      <c r="D106" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E106" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="47"/>
+      <c r="D107" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="47"/>
+      <c r="D108" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="E108" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="47"/>
+      <c r="D109" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="47"/>
+      <c r="D110" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E110" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="47"/>
+      <c r="D111" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="47"/>
+      <c r="D112" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="47"/>
+      <c r="D113" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="47"/>
+      <c r="D114" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="47"/>
+      <c r="D115" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="47"/>
+      <c r="D116" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="47"/>
+      <c r="D117" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E117" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="47"/>
+      <c r="D118" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E118" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="47"/>
+      <c r="D119" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E119" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="47"/>
+      <c r="D120" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="47"/>
+      <c r="D121" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="33" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C122" s="47"/>
+      <c r="D122" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="C123" s="47" t="s">
+        <v>502</v>
+      </c>
+      <c r="D123" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="34" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="34" t="s">
-        <v>457</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" s="48" t="s">
-        <v>492</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="34" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="34" t="s">
-        <v>445</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="34" t="s">
-        <v>444</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>437</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>434</v>
-      </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="33" t="s">
-        <v>433</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="34" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="33" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="33" t="s">
-        <v>424</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>422</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>414</v>
-      </c>
-      <c r="E28" s="34"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="33" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>498</v>
-      </c>
-      <c r="E31" s="34"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="B35" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="48"/>
-      <c r="D40" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="B45" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="B50" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="B51" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="B52" s="48" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E52" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="B53" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="48"/>
-      <c r="D53" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="B55" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="B56" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="B57" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E57" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E58" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="B59" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="34" t="s">
-        <v>371</v>
-      </c>
-      <c r="B60" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="B61" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="B62" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="C62" s="48"/>
-      <c r="D62" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="B63" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B64" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E64" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="B65" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="48"/>
-      <c r="D65" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E65" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="B66" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="B67" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="B68" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="B69" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E69" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="B70" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="B71" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="B72" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E72" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="34" t="s">
-        <v>357</v>
-      </c>
-      <c r="B73" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E73" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="B74" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="48"/>
-      <c r="D74" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="34" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="B76" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="48"/>
-      <c r="D76" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="34" t="s">
-        <v>353</v>
-      </c>
-      <c r="B77" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="B78" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="B79" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E79" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="34" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E82" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="B83" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="B84" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="B85" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="B86" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="B87" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="48"/>
-      <c r="D87" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="B88" s="48" t="s">
-        <v>341</v>
-      </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A89" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="B89" s="48" t="s">
-        <v>339</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="D89" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="B90" s="48" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="B91" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="48"/>
-      <c r="D91" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E91" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="B92" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="B93" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="B94" s="48" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="B95" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B97" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" s="48"/>
-      <c r="D97" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" s="48"/>
-      <c r="D98" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B99" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="B100" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E100" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="B101" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E101" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="B103" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E103" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="E104" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B105" s="48" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="48"/>
-      <c r="D105" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E105" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="48"/>
-      <c r="D106" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E106" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="C107" s="48"/>
-      <c r="D107" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E107" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="48"/>
-      <c r="D108" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="48"/>
-      <c r="D109" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" s="48"/>
-      <c r="D110" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="E110" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="B111" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="48"/>
-      <c r="D111" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="B112" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="48"/>
-      <c r="D112" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="E112" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="48" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="48"/>
-      <c r="D113" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="E113" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B114" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="E114" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="48"/>
-      <c r="D115" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="48"/>
-      <c r="D117" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E117" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B118" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C118" s="48"/>
-      <c r="D118" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E118" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="E119" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="B120" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E120" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" s="48" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="48"/>
-      <c r="D121" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E121" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="B122" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="C122" s="48"/>
-      <c r="D122" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="E122" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="B123" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="C123" s="48" t="s">
+      <c r="E123" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="D123" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="E123" s="34" t="s">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="50"/>
+      <c r="D124" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="E124" s="33" t="s">
         <v>504</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="51"/>
-      <c r="D124" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="E124" s="34" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -6746,26 +6736,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B67D0-0DDB-4DA4-B07D-03FC1C204CCB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="180d06e4-a44d-42a9-abe2-9bd0f71c347d" origin="defaultValue"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F85D098-26F1-4F52-97E0-6CC3D5148D50}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A227B915-8565-4BD4-9685-D0EC20F9370B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEC07FD-229D-412C-BA06-81E5DB990D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338D497-21EC-41A7-B5A3-EDCEFDE3739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
+    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="507">
   <si>
     <t>order_tracking_number</t>
   </si>
@@ -1707,6 +1707,9 @@
   <si>
     <t>M
 C</t>
+  </si>
+  <si>
+    <t>discover.networkOriginalAmount</t>
   </si>
 </sst>
 </file>
@@ -2047,9 +2050,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2157,6 +2157,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2576,8 +2579,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}" name="Table2" displayName="Table2" ref="A2:C100" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A2:C100" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}" name="Table2" displayName="Table2" ref="A2:C101" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A2:C101" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E666DADC-84D2-4877-BAAE-923242B09F63}" name="XML/SOAP" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{699359E8-EFCB-4F64-A331-9A4839005E29}" name="JSON" dataDxfId="15"/>
@@ -2588,8 +2591,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}" name="Table3" displayName="Table3" ref="D2:E100" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="D2:E100" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}" name="Table3" displayName="Table3" ref="D2:E101" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="D2:E101" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{86AFE0B7-48FF-4118-8BF6-4F37A30309B1}" name="Commerce Hub Element" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B41F94A8-69DE-4A58-A21D-0F385CB0803B}" name="Commerce Hub Equivalent Value" dataDxfId="9"/>
@@ -2600,19 +2603,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}" name="Table4" displayName="Table4" ref="A2:C124" totalsRowShown="0" tableBorderDxfId="8">
-  <autoFilter ref="A2:C124" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="stored_credentials.authorization_type_override"/>
-        <filter val="stored_credentials.indicator"/>
-        <filter val="stored_credentials.initiation"/>
-        <filter val="stored_credentials.original_amount"/>
-        <filter val="stored_credentials.protectbuy_indicator"/>
-        <filter val="stored_credentials.schedule"/>
-        <filter val="stored_credentials.transaction_id"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:C124" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CF21D4EC-8E0A-468E-A201-9710382A0879}" name="XML/SOAP" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E857725E-DB5F-4D2C-96AB-69508E1ADBCA}" name="JSON" dataDxfId="6"/>
@@ -2930,12 +2921,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439F1F15-D443-4604-BD21-4221524F45CB}">
-  <dimension ref="A1:CN100"/>
+  <dimension ref="A1:CN101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2948,15 +2939,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:92" s="6" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -2971,7 +2962,7 @@
       <c r="D2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>267</v>
       </c>
     </row>
@@ -2985,10 +2976,10 @@
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2999,92 +2990,92 @@
       <c r="B4" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="30" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:92" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="30" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>289</v>
       </c>
       <c r="F9" s="4"/>
@@ -3176,250 +3167,250 @@
       <c r="CN9" s="4"/>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="30" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:92" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="30" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="30" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="30" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+      <c r="E20" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A21" s="17" t="s">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="30" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A22" s="17" t="s">
+      <c r="E22" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="30" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="E23" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="30" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+      <c r="E24" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="30" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="30" t="s">
         <v>289</v>
       </c>
       <c r="F25"/>
@@ -3511,123 +3502,123 @@
       <c r="CN25"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="26" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+      <c r="E27" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="30" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="E28" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="30" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+      <c r="E29" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="30" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+      <c r="E30" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B31" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="30" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+      <c r="E31" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="30" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+      <c r="E32" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="30" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>287</v>
+      <c r="E33" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -3718,883 +3709,883 @@
       <c r="CN33"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="30" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A35" s="17" t="s">
+      <c r="E35" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="30" t="s">
+      <c r="C36" s="18"/>
+      <c r="D36" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18" t="s">
+      <c r="E36" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="30" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A37" s="17" t="s">
+      <c r="E37" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="30" t="s">
+      <c r="C38" s="18"/>
+      <c r="D38" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="E38" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B39" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="30" t="s">
+      <c r="C39" s="18"/>
+      <c r="D39" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A39" s="17" t="s">
+      <c r="E39" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="30" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A40" s="17" t="s">
+      <c r="E40" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="30" t="s">
+      <c r="C41" s="18"/>
+      <c r="D41" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A41" s="17" t="s">
+      <c r="E41" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="30" t="s">
+      <c r="C42" s="18"/>
+      <c r="D42" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+      <c r="E42" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="30" t="s">
+      <c r="C43" s="18"/>
+      <c r="D43" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E43" s="30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="30" t="s">
+      <c r="C44" s="18"/>
+      <c r="D44" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A44" s="17" t="s">
+      <c r="E44" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B45" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="30" t="s">
+      <c r="C45" s="18"/>
+      <c r="D45" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A45" s="17" t="s">
+      <c r="E45" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="30" t="s">
+      <c r="C46" s="18"/>
+      <c r="D46" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="E45" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
+      <c r="E46" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="30" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="E46" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
+      <c r="E47" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B48" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="30" t="s">
+      <c r="C48" s="18"/>
+      <c r="D48" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
+      <c r="E48" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="30" t="s">
+      <c r="C49" s="18"/>
+      <c r="D49" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="17" t="s">
+      <c r="E49" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="19"/>
-      <c r="D49" s="30" t="s">
+      <c r="C50" s="18"/>
+      <c r="D50" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="17" t="s">
+      <c r="E50" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B51" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="30" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="232" x14ac:dyDescent="0.35">
-      <c r="A51" s="17" t="s">
+      <c r="E51" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="30" t="s">
+      <c r="D52" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E52" s="30" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B53" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="30" t="s">
+      <c r="C53" s="18"/>
+      <c r="D53" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+      <c r="E53" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B53" s="18" t="s">
+      <c r="B54" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="30" t="s">
+      <c r="C54" s="18"/>
+      <c r="D54" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
+      <c r="E54" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B55" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="30" t="s">
+      <c r="C55" s="18"/>
+      <c r="D55" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+      <c r="E55" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B55" s="18" t="s">
+      <c r="B56" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="19"/>
-      <c r="D55" s="30" t="s">
+      <c r="C56" s="18"/>
+      <c r="D56" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="17" t="s">
+      <c r="E56" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B57" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="30" t="s">
+      <c r="C57" s="18"/>
+      <c r="D57" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="17" t="s">
+      <c r="E57" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B58" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="30" t="s">
+      <c r="C58" s="18"/>
+      <c r="D58" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
+      <c r="E58" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="30" t="s">
+      <c r="C59" s="18"/>
+      <c r="D59" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="E58" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="17" t="s">
+      <c r="E59" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B59" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="30" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="17" t="s">
+      <c r="E60" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="30" t="s">
+      <c r="C61" s="18"/>
+      <c r="D61" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
+      <c r="E61" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B62" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C61" s="19"/>
-      <c r="D61" s="30" t="s">
+      <c r="C62" s="18"/>
+      <c r="D62" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+      <c r="E62" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="19"/>
-      <c r="D62" s="30" t="s">
+      <c r="C63" s="18"/>
+      <c r="D63" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+      <c r="E63" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="30" t="s">
+      <c r="C64" s="18"/>
+      <c r="D64" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E63" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
+      <c r="E64" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B64" s="18" t="s">
+      <c r="B65" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="30" t="s">
+      <c r="C65" s="18"/>
+      <c r="D65" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E64" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="17" t="s">
+      <c r="E65" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="30" t="s">
+      <c r="C66" s="18"/>
+      <c r="D66" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="17" t="s">
+      <c r="E66" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B67" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="30" t="s">
+      <c r="C67" s="18"/>
+      <c r="D67" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="17" t="s">
+      <c r="E67" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B68" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C67" s="19"/>
-      <c r="D67" s="30" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="17" t="s">
+      <c r="E68" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="30" t="s">
+      <c r="C69" s="18"/>
+      <c r="D69" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
+      <c r="E69" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B70" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C69" s="38" t="s">
+      <c r="C70" s="37" t="s">
         <v>294</v>
       </c>
-      <c r="D69" s="30" t="s">
+      <c r="D70" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="E69" s="31" t="s">
+      <c r="E70" s="30" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="30" t="s">
+      <c r="C71" s="18"/>
+      <c r="D71" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="E70" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="17" t="s">
+      <c r="E71" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B72" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C72" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D72" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="31" t="s">
+      <c r="E72" s="30" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="17" t="s">
+    <row r="73" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B73" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D73" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E73" s="30" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="17" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B74" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="30" t="s">
+      <c r="C74" s="18"/>
+      <c r="D74" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
+      <c r="E74" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B75" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="30" t="s">
+      <c r="C75" s="18"/>
+      <c r="D75" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E74" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="17" t="s">
+      <c r="E75" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B76" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="30" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="E75" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="17" t="s">
+      <c r="E76" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="30" t="s">
+      <c r="C77" s="18"/>
+      <c r="D77" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="E76" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="17" t="s">
+      <c r="E77" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B78" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="39" t="s">
+      <c r="C78" s="18"/>
+      <c r="D78" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="E77" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="17" t="s">
+      <c r="E78" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B79" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="30" t="s">
+      <c r="C79" s="18"/>
+      <c r="D79" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="E78" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
+      <c r="E79" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="30" t="s">
+      <c r="C80" s="18"/>
+      <c r="D80" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E79" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
+      <c r="E80" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="30" t="s">
+      <c r="C81" s="18"/>
+      <c r="D81" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E80" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="17" t="s">
+      <c r="E81" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="30" t="s">
+      <c r="C82" s="18"/>
+      <c r="D82" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E81" s="31" t="s">
+      <c r="E82" s="30" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="82" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
+    <row r="83" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B83" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="30" t="s">
+      <c r="C83" s="18"/>
+      <c r="D83" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="31" t="s">
+      <c r="E83" s="30" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="83" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A83" s="17" t="s">
+    <row r="84" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B83" s="20" t="s">
+      <c r="B84" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="30" t="s">
+      <c r="C84" s="20"/>
+      <c r="D84" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="84" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A84" s="17" t="s">
+      <c r="E84" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="18" t="s">
+      <c r="B85" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="30" t="s">
+      <c r="C85" s="18"/>
+      <c r="D85" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E84" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A85" s="17" t="s">
+      <c r="E85" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A86" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="18" t="s">
+      <c r="B86" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="30" t="s">
+      <c r="C86" s="18"/>
+      <c r="D86" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E85" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
+      <c r="E86" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B87" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C86" s="19"/>
-      <c r="D86" s="30" t="s">
+      <c r="C87" s="18"/>
+      <c r="D87" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E86" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="17" t="s">
+      <c r="E87" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C88" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="D87" s="30" t="s">
+      <c r="D88" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E88" s="30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A88" s="17" t="s">
+    <row r="89" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B89" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="30" t="s">
+      <c r="C89" s="18"/>
+      <c r="D89" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E88" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="89" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
+      <c r="E89" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B90" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="30" t="s">
+      <c r="C90" s="18"/>
+      <c r="D90" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E89" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:92" ht="58" x14ac:dyDescent="0.35">
-      <c r="A90" s="17" t="s">
+      <c r="E90" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:92" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B91" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="19" t="s">
+      <c r="C91" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D90" s="30" t="s">
+      <c r="D91" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E90" s="31" t="s">
+      <c r="E91" s="30" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="91" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>289</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -4685,135 +4676,150 @@
       <c r="CN91"/>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B93" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="30" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A93" s="17" t="s">
+      <c r="E93" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="30" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A94" s="17" t="s">
+      <c r="E94" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="30" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="22" t="s">
+      <c r="E95" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="19"/>
-      <c r="D95" s="30" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="31" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A96" s="17" t="s">
+      <c r="E96" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="30" t="s">
+      <c r="B97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="17" t="s">
+      <c r="E97" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="30" t="s">
+      <c r="B98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="17" t="s">
+      <c r="E98" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B99" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="30" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="17" t="s">
+      <c r="E99" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="30" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="23" t="s">
+      <c r="E100" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="24" t="s">
+      <c r="B101" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="25"/>
-      <c r="D100" s="26" t="s">
+      <c r="C101" s="24"/>
+      <c r="D101" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="31" t="s">
+      <c r="E101" s="30" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4835,1903 +4841,1903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A10033-FA02-4621-BCA6-E2FC6A173885}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="41" customWidth="1"/>
     <col min="4" max="4" width="109.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="85.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="40"/>
+    <col min="6" max="16384" width="8.7265625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="50"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>478</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="30" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="30" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="30" t="s">
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>458</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="30" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="188.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>452</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="87" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
         <v>450</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="43" t="s">
         <v>449</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="30" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="30" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>443</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="30" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
         <v>440</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="30" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
         <v>434</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>433</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>430</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>424</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>421</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
+      <c r="E22" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="30" t="s">
+      <c r="B23" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="31" t="s">
+      <c r="E23" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="30" t="s">
+      <c r="C24" s="43"/>
+      <c r="D24" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="31" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="31" t="s">
+      <c r="E25" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
         <v>417</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="30" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
         <v>415</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="30" t="s">
+      <c r="B27" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E27" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="31" t="s">
+      <c r="E27" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="43"/>
+      <c r="D29" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="E29" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="31" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="30" t="s">
+      <c r="C30" s="43"/>
+      <c r="D30" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="43" t="s">
         <v>406</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="E31" s="31"/>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="31" t="s">
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="30" t="s">
+      <c r="C32" s="43"/>
+      <c r="D32" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="31" t="s">
+    <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>498</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="30" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
         <v>403</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="30" t="s">
+      <c r="C34" s="43"/>
+      <c r="D34" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E34" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="31" t="s">
+      <c r="E34" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="B35" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="44"/>
-      <c r="D35" s="30" t="s">
+      <c r="B35" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E35" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="31" t="s">
+      <c r="E35" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="B36" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="44"/>
-      <c r="D36" s="30" t="s">
+      <c r="B36" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="31" t="s">
+      <c r="E36" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="B37" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="30" t="s">
+      <c r="B37" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="31" t="s">
+      <c r="E37" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="43" t="s">
         <v>398</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="30" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E38" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="31" t="s">
+      <c r="E38" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E39" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="31" t="s">
+      <c r="E39" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="B40" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="30" t="s">
+      <c r="B40" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E40" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
+      <c r="E40" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="30" t="s">
         <v>395</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="30" t="s">
+      <c r="C41" s="43"/>
+      <c r="D41" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E41" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="31" t="s">
+      <c r="E41" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="30" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="30" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31" t="s">
+    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="30" t="s">
+      <c r="C43" s="43"/>
+      <c r="D43" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="E43" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="31" t="s">
+      <c r="E43" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="30" t="s">
+      <c r="C44" s="43"/>
+      <c r="D44" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="E44" s="31" t="s">
+      <c r="E44" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="31" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="B45" s="44" t="s">
+      <c r="B45" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="30" t="s">
+      <c r="C45" s="43"/>
+      <c r="D45" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="E45" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="31" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="30" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="30" t="s">
+      <c r="C47" s="43"/>
+      <c r="D47" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E47" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="31" t="s">
+      <c r="E47" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="43" t="s">
         <v>383</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="30" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E48" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="31" t="s">
+      <c r="E48" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="30" t="s">
+      <c r="C49" s="43"/>
+      <c r="D49" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E49" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="31" t="s">
+      <c r="E49" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="30" t="s">
+      <c r="C50" s="43"/>
+      <c r="D50" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="31" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="30" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="31" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="30" t="s">
+      <c r="C52" s="43"/>
+      <c r="D52" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E52" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="31" t="s">
+      <c r="E52" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="30" t="s">
+      <c r="C53" s="43"/>
+      <c r="D53" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E53" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="31" t="s">
+      <c r="E53" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="30" t="s">
+      <c r="C54" s="43"/>
+      <c r="D54" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="31" t="s">
+      <c r="E54" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="30" t="s">
+      <c r="C55" s="43"/>
+      <c r="D55" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E55" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="31" t="s">
+      <c r="E55" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="30" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E56" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="31" t="s">
+      <c r="E56" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="30" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E57" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="31" t="s">
+      <c r="E57" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="30" t="s">
+      <c r="C58" s="43"/>
+      <c r="D58" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E58" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="31" t="s">
+      <c r="E58" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="30" t="s">
+      <c r="C59" s="43"/>
+      <c r="D59" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E59" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="31" t="s">
+      <c r="E59" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="B60" s="44" t="s">
+      <c r="B60" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="44"/>
-      <c r="D60" s="30" t="s">
+      <c r="C60" s="43"/>
+      <c r="D60" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E60" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="31" t="s">
+      <c r="E60" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="30" t="s">
+      <c r="C61" s="43"/>
+      <c r="D61" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E61" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="31" t="s">
+      <c r="E61" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="C62" s="44"/>
-      <c r="D62" s="30" t="s">
+      <c r="C62" s="43"/>
+      <c r="D62" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E62" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="31" t="s">
+      <c r="E62" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="30" t="s">
+      <c r="C63" s="43"/>
+      <c r="D63" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E63" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="31" t="s">
+      <c r="E63" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="30" t="s">
+      <c r="C64" s="43"/>
+      <c r="D64" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E64" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="31" t="s">
+      <c r="E64" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="30" t="s">
+      <c r="C65" s="43"/>
+      <c r="D65" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E65" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="31" t="s">
+      <c r="E65" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="30" t="s">
+      <c r="C66" s="43"/>
+      <c r="D66" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E66" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="31" t="s">
+      <c r="E66" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="30" t="s">
+      <c r="C67" s="43"/>
+      <c r="D67" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E67" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="31" t="s">
+      <c r="E67" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="30" t="s">
+      <c r="C68" s="43"/>
+      <c r="D68" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E68" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="31" t="s">
+      <c r="E68" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="B69" s="44" t="s">
+      <c r="B69" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="30" t="s">
+      <c r="C69" s="43"/>
+      <c r="D69" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E69" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="31" t="s">
+      <c r="E69" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="B70" s="44" t="s">
+      <c r="B70" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="30" t="s">
+      <c r="C70" s="43"/>
+      <c r="D70" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="31" t="s">
+      <c r="E70" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="B71" s="44" t="s">
+      <c r="B71" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="30" t="s">
+      <c r="C71" s="43"/>
+      <c r="D71" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E71" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="31" t="s">
+      <c r="E71" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="30" t="s">
+      <c r="C72" s="43"/>
+      <c r="D72" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E72" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="31" t="s">
+      <c r="E72" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="B73" s="44" t="s">
+      <c r="B73" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="30" t="s">
+      <c r="C73" s="43"/>
+      <c r="D73" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E73" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="31" t="s">
+      <c r="E73" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="30" t="s">
+      <c r="C74" s="43"/>
+      <c r="D74" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E74" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="31" t="s">
+      <c r="E74" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="B75" s="44" t="s">
+      <c r="B75" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="30" t="s">
+      <c r="C75" s="43"/>
+      <c r="D75" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E75" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="31" t="s">
+      <c r="E75" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B76" s="44" t="s">
+      <c r="B76" s="43" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="30" t="s">
+      <c r="C76" s="43"/>
+      <c r="D76" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E76" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="31" t="s">
+      <c r="E76" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="30" t="s">
         <v>352</v>
       </c>
-      <c r="B77" s="44" t="s">
+      <c r="B77" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="30" t="s">
+      <c r="C77" s="43"/>
+      <c r="D77" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E77" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="31" t="s">
+      <c r="E77" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="B78" s="44" t="s">
+      <c r="B78" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="30" t="s">
+      <c r="C78" s="43"/>
+      <c r="D78" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E78" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="31" t="s">
+      <c r="E78" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="30" t="s">
+      <c r="C79" s="43"/>
+      <c r="D79" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E79" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="31" t="s">
+      <c r="E79" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="B80" s="44" t="s">
+      <c r="B80" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="44"/>
-      <c r="D80" s="30" t="s">
+      <c r="C80" s="43"/>
+      <c r="D80" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E80" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="31" t="s">
+      <c r="E80" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="B81" s="44" t="s">
+      <c r="B81" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="30" t="s">
+      <c r="C81" s="43"/>
+      <c r="D81" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E81" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="31" t="s">
+      <c r="E81" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="44"/>
-      <c r="D82" s="30" t="s">
+      <c r="C82" s="43"/>
+      <c r="D82" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E82" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="31" t="s">
+      <c r="E82" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="B83" s="44" t="s">
+      <c r="B83" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="44"/>
-      <c r="D83" s="30" t="s">
+      <c r="C83" s="43"/>
+      <c r="D83" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E83" s="31" t="s">
+      <c r="E83" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="31" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="B84" s="44" t="s">
+      <c r="B84" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="30" t="s">
+      <c r="C84" s="43"/>
+      <c r="D84" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E84" s="31" t="s">
+      <c r="E84" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="31" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="43"/>
+      <c r="D85" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="31" t="s">
+      <c r="E85" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="31" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="30" t="s">
+      <c r="C86" s="43"/>
+      <c r="D86" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E86" s="31" t="s">
+      <c r="E86" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="31" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="30" t="s">
         <v>342</v>
       </c>
-      <c r="B87" s="44" t="s">
+      <c r="B87" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="30" t="s">
+      <c r="C87" s="43"/>
+      <c r="D87" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="31" t="s">
+      <c r="E87" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="31" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="B88" s="44" t="s">
+      <c r="B88" s="43" t="s">
         <v>340</v>
       </c>
-      <c r="C88" s="44"/>
-      <c r="D88" s="30" t="s">
+      <c r="C88" s="43"/>
+      <c r="D88" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="31" t="s">
+      <c r="E88" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="58" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="31" t="s">
+    <row r="89" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A89" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C89" s="44" t="s">
+      <c r="C89" s="43" t="s">
         <v>312</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="31" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="B90" s="44" t="s">
+      <c r="B90" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C90" s="44"/>
-      <c r="D90" s="30" t="s">
+      <c r="C90" s="43"/>
+      <c r="D90" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E90" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="31" t="s">
+      <c r="E90" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="44"/>
-      <c r="D91" s="30" t="s">
+      <c r="B91" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="43"/>
+      <c r="D91" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E91" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="31" t="s">
+      <c r="E91" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="B92" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="30" t="s">
+      <c r="B92" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="43"/>
+      <c r="D92" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E92" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="31" t="s">
+      <c r="E92" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="30" t="s">
+      <c r="B93" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="43"/>
+      <c r="D93" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E93" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="31" t="s">
+      <c r="E93" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="30" t="s">
+      <c r="C94" s="43"/>
+      <c r="D94" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="E94" s="31" t="s">
+      <c r="E94" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="31" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="B95" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="30" t="s">
+      <c r="B95" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="43"/>
+      <c r="D95" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E95" s="31" t="s">
+      <c r="E95" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="31" t="s">
+      <c r="A96" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C96" s="44"/>
-      <c r="D96" s="30" t="s">
+      <c r="C96" s="43"/>
+      <c r="D96" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E96" s="31" t="s">
+      <c r="E96" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="31" t="s">
+      <c r="A97" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="43" t="s">
         <v>228</v>
       </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="30" t="s">
+      <c r="C97" s="43"/>
+      <c r="D97" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E97" s="31" t="s">
+      <c r="E97" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="31" t="s">
+      <c r="A98" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="43" t="s">
         <v>231</v>
       </c>
-      <c r="C98" s="44"/>
-      <c r="D98" s="30" t="s">
+      <c r="C98" s="43"/>
+      <c r="D98" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E98" s="31" t="s">
+      <c r="E98" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="31" t="s">
+      <c r="A99" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="C99" s="44"/>
-      <c r="D99" s="30" t="s">
+      <c r="C99" s="43"/>
+      <c r="D99" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E99" s="31" t="s">
+      <c r="E99" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="31" t="s">
+      <c r="A100" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="C100" s="44"/>
-      <c r="D100" s="30" t="s">
+      <c r="C100" s="43"/>
+      <c r="D100" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E100" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="31" t="s">
+      <c r="E100" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B101" s="44" t="s">
+      <c r="B101" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="C101" s="44"/>
-      <c r="D101" s="30" t="s">
+      <c r="C101" s="43"/>
+      <c r="D101" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E101" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="72.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="31" t="s">
+      <c r="E101" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="C102" s="44" t="s">
+      <c r="C102" s="43" t="s">
         <v>310</v>
       </c>
-      <c r="D102" s="30" t="s">
+      <c r="D102" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E102" s="31" t="s">
+      <c r="E102" s="30" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="31" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="B103" s="44" t="s">
+      <c r="B103" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="C103" s="44"/>
-      <c r="D103" s="30" t="s">
+      <c r="C103" s="43"/>
+      <c r="D103" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E103" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="31" t="s">
+      <c r="E103" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B104" s="44" t="s">
+      <c r="B104" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C104" s="44"/>
-      <c r="D104" s="30" t="s">
+      <c r="C104" s="43"/>
+      <c r="D104" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="E104" s="31" t="s">
+      <c r="E104" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="31" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="C105" s="44"/>
-      <c r="D105" s="30" t="s">
+      <c r="C105" s="43"/>
+      <c r="D105" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E105" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="31" t="s">
+      <c r="E105" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="44"/>
-      <c r="D106" s="30" t="s">
+      <c r="C106" s="43"/>
+      <c r="D106" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E106" s="31" t="s">
+      <c r="E106" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="31" t="s">
+      <c r="A107" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="C107" s="44"/>
-      <c r="D107" s="30" t="s">
+      <c r="C107" s="43"/>
+      <c r="D107" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E107" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="31" t="s">
+      <c r="E107" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="44"/>
-      <c r="D108" s="30" t="s">
+      <c r="C108" s="43"/>
+      <c r="D108" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E108" s="31" t="s">
+      <c r="E108" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="31" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B109" s="44" t="s">
+      <c r="B109" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C109" s="44"/>
-      <c r="D109" s="30" t="s">
+      <c r="C109" s="43"/>
+      <c r="D109" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E109" s="31" t="s">
+      <c r="E109" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="31" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="B110" s="44" t="s">
+      <c r="B110" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C110" s="44"/>
-      <c r="D110" s="30" t="s">
+      <c r="C110" s="43"/>
+      <c r="D110" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E110" s="31" t="s">
+      <c r="E110" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="31" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="B111" s="44" t="s">
+      <c r="B111" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="C111" s="44"/>
-      <c r="D111" s="30" t="s">
+      <c r="C111" s="43"/>
+      <c r="D111" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E111" s="31" t="s">
+      <c r="E111" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="31" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="30" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="44" t="s">
+      <c r="B112" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="C112" s="44"/>
-      <c r="D112" s="30" t="s">
+      <c r="C112" s="43"/>
+      <c r="D112" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E112" s="31" t="s">
+      <c r="E112" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="31" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="C113" s="44"/>
-      <c r="D113" s="30" t="s">
+      <c r="C113" s="43"/>
+      <c r="D113" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E113" s="31" t="s">
+      <c r="E113" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="31" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B114" s="44" t="s">
+      <c r="B114" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="44"/>
-      <c r="D114" s="30" t="s">
+      <c r="C114" s="43"/>
+      <c r="D114" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E114" s="31" t="s">
+      <c r="E114" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="31" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="30" t="s">
+      <c r="C115" s="43"/>
+      <c r="D115" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E115" s="31" t="s">
+      <c r="E115" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="31" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B116" s="44" t="s">
+      <c r="B116" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="30" t="s">
+      <c r="C116" s="43"/>
+      <c r="D116" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E116" s="31" t="s">
+      <c r="E116" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="31" t="s">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="30" t="s">
         <v>203</v>
       </c>
-      <c r="B117" s="44" t="s">
+      <c r="B117" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="30" t="s">
+      <c r="C117" s="43"/>
+      <c r="D117" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E117" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="31" t="s">
+      <c r="E117" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="44" t="s">
+      <c r="B118" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="30" t="s">
+      <c r="C118" s="43"/>
+      <c r="D118" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E118" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="31" t="s">
+      <c r="E118" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="30" t="s">
+      <c r="C119" s="43"/>
+      <c r="D119" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E119" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="31" t="s">
+      <c r="E119" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="30" t="s">
+      <c r="C120" s="43"/>
+      <c r="D120" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E120" s="31" t="s">
+      <c r="E120" s="30" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="31" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B121" s="44" t="s">
+      <c r="B121" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="C121" s="44"/>
-      <c r="D121" s="30" t="s">
+      <c r="C121" s="43"/>
+      <c r="D121" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="E121" s="31" t="s">
+      <c r="E121" s="30" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="31" t="s">
+      <c r="A122" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B122" s="44" t="s">
+      <c r="B122" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="C122" s="44"/>
-      <c r="D122" s="30" t="s">
+      <c r="C122" s="43"/>
+      <c r="D122" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E122" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="31" t="s">
+      <c r="E122" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="B123" s="44" t="s">
+      <c r="B123" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="C123" s="44" t="s">
+      <c r="C123" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="D123" s="30" t="s">
+      <c r="D123" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="E123" s="31" t="s">
+      <c r="E123" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="27" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="46" t="s">
+      <c r="B124" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="26" t="s">
+      <c r="C124" s="45"/>
+      <c r="D124" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="30" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6754,7 +6760,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7548136D-1F72-465F-AC98-C01FBF60E9D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC10061-F431-475E-B205-A18C1E0C07FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EB11F9-EF44-47E7-B920-B51903A86EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338D497-21EC-41A7-B5A3-EDCEFDE3739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15225" yWindow="-20805" windowWidth="20880" windowHeight="19365" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
+    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="507">
   <si>
     <t>order_tracking_number</t>
   </si>
@@ -909,9 +909,6 @@
   <si>
     <t>MERCHANT
 CARD_HOLDER</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>1
@@ -1706,6 +1703,13 @@
   </si>
   <si>
     <t>Payeezy Gateway Direct Response Element</t>
+  </si>
+  <si>
+    <t>M
+C</t>
+  </si>
+  <si>
+    <t>discover.networkOriginalAmount</t>
   </si>
 </sst>
 </file>
@@ -2031,12 +2035,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2051,9 +2049,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2127,9 +2122,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2148,53 +2140,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2248,6 +2219,39 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2340,39 +2344,6 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2419,6 +2390,39 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2575,8 +2579,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}" name="Table2" displayName="Table2" ref="A2:C100" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A2:C100" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}" name="Table2" displayName="Table2" ref="A2:C101" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A2:C101" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E666DADC-84D2-4877-BAAE-923242B09F63}" name="XML/SOAP" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{699359E8-EFCB-4F64-A331-9A4839005E29}" name="JSON" dataDxfId="15"/>
@@ -2587,11 +2591,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}" name="Table3" displayName="Table3" ref="D2:E100" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="13">
-  <autoFilter ref="D2:E100" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}" name="Table3" displayName="Table3" ref="D2:E101" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="D2:E101" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{86AFE0B7-48FF-4118-8BF6-4F37A30309B1}" name="Commerce Hub Element" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{B41F94A8-69DE-4A58-A21D-0F385CB0803B}" name="Commerce Hub Equivalent Value" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{86AFE0B7-48FF-4118-8BF6-4F37A30309B1}" name="Commerce Hub Element" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{B41F94A8-69DE-4A58-A21D-0F385CB0803B}" name="Commerce Hub Equivalent Value" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2610,11 +2614,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}" name="Table5" displayName="Table5" ref="D2:E124" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}" name="Table5" displayName="Table5" ref="D2:E124" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="D2:E124" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9B6E7F04-F150-4930-AE1B-E4C7C335E2FD}" name="Commerce Hub Element" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F6520EC4-61EB-4EFE-8BEB-B9AAF927CF1E}" name="Commerce Hub Equivalent Value" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9B6E7F04-F150-4930-AE1B-E4C7C335E2FD}" name="Commerce Hub Element" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{F6520EC4-61EB-4EFE-8BEB-B9AAF927CF1E}" name="Commerce Hub Equivalent Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2917,162 +2921,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439F1F15-D443-4604-BD21-4221524F45CB}">
-  <dimension ref="A1:CN100"/>
+  <dimension ref="A1:CN101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="7" customWidth="1"/>
     <col min="4" max="4" width="65.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="100.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:92" s="6" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="31" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:92" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="26" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>290</v>
+      <c r="E6" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="30" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="32" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>290</v>
+      <c r="E8" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:92" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="32" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>290</v>
+      <c r="E9" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3163,251 +3167,251 @@
       <c r="CN9" s="4"/>
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="32" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>290</v>
+      <c r="E10" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:92" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>290</v>
+      <c r="E14" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="32" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>290</v>
+      <c r="E15" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="30" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
+        <v>505</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="21" t="s">
+      <c r="D18" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="E18" s="33" t="s">
+    </row>
+    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="29" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="32" t="s">
+      <c r="E20" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="21" t="s">
+      <c r="D21" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="D20" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A21" s="19" t="s">
+    </row>
+    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B22" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="32" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
+      <c r="E22" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B23" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="32" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A23" s="19" t="s">
+      <c r="E23" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="32" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A24" s="19" t="s">
+      <c r="E24" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B25" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="32" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>290</v>
+      <c r="E25" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -3498,123 +3502,123 @@
       <c r="CN25"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B27" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="28" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A27" s="19" t="s">
+      <c r="E27" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="32" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A28" s="19" t="s">
+      <c r="E28" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B29" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="32" t="s">
+      <c r="C29" s="18"/>
+      <c r="D29" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A29" s="19" t="s">
+      <c r="E29" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B30" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="32" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A30" s="19" t="s">
+      <c r="E30" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="32" t="s">
+      <c r="C31" s="18"/>
+      <c r="D31" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A31" s="19" t="s">
+      <c r="E31" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B32" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="32" t="s">
+      <c r="C32" s="18"/>
+      <c r="D32" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+      <c r="E32" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B33" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="32" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="E33" s="39" t="s">
-        <v>288</v>
+      <c r="E33" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -3705,883 +3709,883 @@
       <c r="CN33"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="32" t="s">
+      <c r="C35" s="18"/>
+      <c r="D35" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E35" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A40" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="30" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="35" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A35" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="32" t="s">
+    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A46" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="18"/>
+      <c r="D68" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="29" t="s">
+        <v>293</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="29" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="84" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A84" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="20"/>
+      <c r="D84" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A86" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="38" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A38" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="39" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A39" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A40" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A41" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A42" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A43" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="44" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A44" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A45" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="46" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A46" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="47" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="232" x14ac:dyDescent="0.35">
-      <c r="A51" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D69" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="D72" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="21"/>
-      <c r="D73" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74" s="21"/>
-      <c r="D74" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="21"/>
-      <c r="D76" s="32" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="81" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A82" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="E82" s="33" t="s">
+      <c r="E86" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="18" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="83" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A83" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C83" s="23"/>
-      <c r="D83" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="84" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A84" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="85" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A85" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="21" t="s">
+      <c r="D88" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E87" s="33" t="s">
+    </row>
+    <row r="89" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C89" s="18"/>
+      <c r="D89" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:92" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="18" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="88" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A88" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C88" s="21"/>
-      <c r="D88" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="89" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A89" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="21"/>
-      <c r="D89" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:92" ht="58" x14ac:dyDescent="0.35">
-      <c r="A90" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C90" s="21" t="s">
+      <c r="D91" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="30" t="s">
         <v>313</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="21"/>
-      <c r="D91" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>290</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -4672,136 +4676,151 @@
       <c r="CN91"/>
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A92" s="19" t="s">
+      <c r="A92" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A93" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B93" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="32" t="s">
+      <c r="C93" s="18"/>
+      <c r="D93" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A93" s="19" t="s">
+      <c r="E93" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B94" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="21"/>
-      <c r="D93" s="32" t="s">
+      <c r="C94" s="18"/>
+      <c r="D94" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E93" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="94" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A94" s="19" t="s">
+      <c r="E94" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A95" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="21"/>
-      <c r="D94" s="32" t="s">
+      <c r="C95" s="18"/>
+      <c r="D95" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A95" s="24" t="s">
+      <c r="E95" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="21"/>
-      <c r="D95" s="32" t="s">
+      <c r="C96" s="18"/>
+      <c r="D96" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E95" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="96" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A96" s="19" t="s">
+      <c r="E96" s="30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="32" t="s">
+      <c r="B97" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E96" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="19" t="s">
+      <c r="E97" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="32" t="s">
+      <c r="B98" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E97" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="19" t="s">
+      <c r="E98" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B99" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="21"/>
-      <c r="D98" s="32" t="s">
+      <c r="C99" s="18"/>
+      <c r="D99" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E98" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="19" t="s">
+      <c r="E99" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="32" t="s">
+      <c r="B100" s="17"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E99" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="25" t="s">
+      <c r="E100" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="26" t="s">
+      <c r="B101" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>290</v>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4822,1904 +4841,1904 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A10033-FA02-4621-BCA6-E2FC6A173885}">
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.81640625" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.08984375" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="41" customWidth="1"/>
     <col min="4" max="4" width="109.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="85.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="43"/>
+    <col min="6" max="16384" width="8.7265625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>505</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="42" t="s">
+      <c r="A1" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="46" t="s">
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="D2" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>474</v>
-      </c>
-      <c r="C3" s="51" t="s">
+      <c r="D3" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="E3" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="E3" s="33" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="43" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A12" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>448</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" s="43"/>
+      <c r="D17" s="29" t="s">
+        <v>435</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="C18" s="43"/>
+      <c r="D18" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="43"/>
+      <c r="D19" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>424</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="30" t="s">
+        <v>422</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="43"/>
+      <c r="D22" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="43"/>
+      <c r="D24" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="43"/>
+      <c r="D26" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="43"/>
+      <c r="D27" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>412</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="43"/>
+      <c r="D30" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="43"/>
+      <c r="D32" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A33" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="43"/>
+      <c r="D35" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="43"/>
+      <c r="D36" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" s="43"/>
+      <c r="D38" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="43"/>
+      <c r="D39" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="43"/>
+      <c r="D40" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="43"/>
+      <c r="D41" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" s="43"/>
+      <c r="D44" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="43"/>
+      <c r="D46" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="43"/>
+      <c r="D50" s="29" t="s">
+        <v>380</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="43"/>
+      <c r="D56" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="43"/>
+      <c r="D57" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" s="43"/>
+      <c r="D59" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="43"/>
+      <c r="D60" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="C67" s="43"/>
+      <c r="D67" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="43"/>
+      <c r="D68" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="43"/>
+      <c r="D69" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="43"/>
+      <c r="D72" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="43"/>
+      <c r="D73" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="43"/>
+      <c r="D74" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="43"/>
+      <c r="D75" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="43"/>
+      <c r="D76" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="43"/>
+      <c r="D77" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C78" s="43"/>
+      <c r="D78" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C79" s="43"/>
+      <c r="D79" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" s="43"/>
+      <c r="D80" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="43"/>
+      <c r="D81" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="43"/>
+      <c r="D82" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B83" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="43"/>
+      <c r="D83" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B84" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="43"/>
+      <c r="D84" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" s="43"/>
+      <c r="D85" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="43"/>
+      <c r="D86" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="43"/>
+      <c r="D87" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" s="43"/>
+      <c r="D88" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A89" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C89" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="D89" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B90" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="43"/>
+      <c r="D90" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B91" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="43"/>
+      <c r="D91" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="43"/>
+      <c r="D92" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="43"/>
+      <c r="D93" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="C94" s="43"/>
+      <c r="D94" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="43"/>
+      <c r="D95" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="43"/>
+      <c r="D96" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C97" s="43"/>
+      <c r="D97" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="43"/>
+      <c r="D98" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B99" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="43"/>
+      <c r="D99" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B100" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="C100" s="43"/>
+      <c r="D100" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B101" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="C101" s="43"/>
+      <c r="D101" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="D102" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="C103" s="43"/>
+      <c r="D103" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="43"/>
+      <c r="D104" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105" s="43"/>
+      <c r="D105" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="43"/>
+      <c r="D106" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="C107" s="43"/>
+      <c r="D107" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C108" s="43"/>
+      <c r="D108" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="43"/>
+      <c r="D109" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="43"/>
+      <c r="D110" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C111" s="43"/>
+      <c r="D111" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C112" s="43"/>
+      <c r="D112" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E112" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B113" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="43"/>
+      <c r="D113" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B114" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="43"/>
+      <c r="D114" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="E114" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B115" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" s="43"/>
+      <c r="D115" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E115" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B116" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="43"/>
+      <c r="D116" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="43"/>
+      <c r="D117" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E117" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="43"/>
+      <c r="D118" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E118" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="43"/>
+      <c r="D119" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E119" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="43"/>
+      <c r="D120" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E120" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="C121" s="43"/>
+      <c r="D121" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E121" s="30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B122" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" s="43"/>
+      <c r="D122" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="E122" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="B123" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="E5" s="33" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>466</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>483</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>485</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>460</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>488</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>458</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="32" t="s">
-        <v>455</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>489</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="E11" s="47" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A12" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>450</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>447</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>494</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>446</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>444</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>440</v>
-      </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="32" t="s">
-        <v>439</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>437</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>431</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33" t="s">
-        <v>426</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>422</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="33" t="s">
-        <v>410</v>
-      </c>
-      <c r="B30" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="33" t="s">
-        <v>406</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="33" t="s">
-        <v>405</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>499</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E36" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>400</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="33" t="s">
-        <v>398</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="33" t="s">
-        <v>397</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="33" t="s">
-        <v>395</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="47"/>
-      <c r="D43" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="B44" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="B45" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>384</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="B51" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="32" t="s">
-        <v>500</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B52" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="33" t="s">
-        <v>376</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="B56" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="B57" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="B60" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="47"/>
-      <c r="D60" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E60" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="B61" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>368</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E62" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="B64" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E64" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="B65" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E65" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="B68" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="33" t="s">
-        <v>361</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E69" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="B71" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="B72" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="47"/>
-      <c r="D72" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="B73" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="47"/>
-      <c r="D73" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="B74" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E74" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E75" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E76" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="B78" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="47"/>
-      <c r="D78" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="B79" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="47"/>
-      <c r="D79" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B80" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="B81" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="47"/>
-      <c r="D81" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="B82" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="47"/>
-      <c r="D82" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="B85" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="B86" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="B87" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="47"/>
-      <c r="D87" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E87" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="B88" s="47" t="s">
-        <v>341</v>
-      </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A89" s="33" t="s">
-        <v>340</v>
-      </c>
-      <c r="B89" s="47" t="s">
-        <v>339</v>
-      </c>
-      <c r="C89" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="D89" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" s="33" t="s">
+      <c r="C123" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="D123" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E123" s="30" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" s="45"/>
+      <c r="D124" s="25" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B90" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="47"/>
-      <c r="D90" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="B91" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="47"/>
-      <c r="D91" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
-        <v>336</v>
-      </c>
-      <c r="B92" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="B93" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E93" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="E94" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E95" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="47"/>
-      <c r="D96" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E96" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B97" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" s="47"/>
-      <c r="D97" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E97" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" s="47"/>
-      <c r="D98" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E98" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="B99" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="47"/>
-      <c r="D99" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E99" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="B100" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C100" s="47"/>
-      <c r="D100" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E100" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="B101" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="C101" s="47"/>
-      <c r="D101" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E101" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="33" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="B103" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C103" s="47"/>
-      <c r="D103" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B105" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="47"/>
-      <c r="D105" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E105" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E106" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="B107" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="C107" s="47"/>
-      <c r="D107" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E107" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="47"/>
-      <c r="D108" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="E108" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="47"/>
-      <c r="D109" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="47" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" s="47"/>
-      <c r="D110" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="E110" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B111" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B112" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="E112" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="E113" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B114" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="E114" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="47"/>
-      <c r="D115" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E116" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E117" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B118" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E118" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="E119" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B120" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="47"/>
-      <c r="D120" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E120" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" s="47" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="47"/>
-      <c r="D121" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="E121" s="33" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="B122" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="C122" s="47"/>
-      <c r="D122" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E122" s="33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="B123" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="C123" s="47" t="s">
-        <v>502</v>
-      </c>
-      <c r="D123" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="E123" s="33" t="s">
+      <c r="E124" s="30" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B124" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E124" s="33" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -6737,11 +6756,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="180d06e4-a44d-42a9-abe2-9bd0f71c347d" origin="defaultValue"/>
+<sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="180d06e4-a44d-42a9-abe2-9bd0f71c347d" origin="userSelected"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A227B915-8565-4BD4-9685-D0EC20F9370B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC10061-F431-475E-B205-A18C1E0C07FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338D497-21EC-41A7-B5A3-EDCEFDE3739F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F0074-7D10-44ED-A3B6-8853E1E95560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
+    <workbookView xWindow="28860" yWindow="-5160" windowWidth="14400" windowHeight="15000" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="2" r:id="rId1"/>
@@ -2146,6 +2146,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2157,9 +2160,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2926,7 +2926,7 @@
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2939,15 +2939,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:92" s="6" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -2990,7 +2990,7 @@
       <c r="B4" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="47" t="s">
         <v>274</v>
       </c>
       <c r="D4" s="25" t="s">
@@ -4858,15 +4858,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
@@ -6760,7 +6760,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC10061-F431-475E-B205-A18C1E0C07FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4CC3E4-7A79-4173-956D-4ED397A506C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F0074-7D10-44ED-A3B6-8853E1E95560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C2CFA-DB95-49D0-83F8-E30EE06636FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-5160" windowWidth="14400" windowHeight="15000" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
+    <workbookView xWindow="11880" yWindow="-21285" windowWidth="25245" windowHeight="19950" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="556">
   <si>
     <t>order_tracking_number</t>
   </si>
@@ -261,11 +261,6 @@
     <t>Transaction.CVD_Presence_Ind</t>
   </si>
   <si>
-    <t>transactionInteraction.origin
-transactionInteraction.eciIndicator
-additionalDataCommon.billPaymentType</t>
-  </si>
-  <si>
     <t>ecommerce_flag</t>
   </si>
   <si>
@@ -302,181 +297,120 @@
     <t>Transaction.Language</t>
   </si>
   <si>
-    <t>level23Data.level23DataItems.VatAmount</t>
-  </si>
-  <si>
     <t>level3.alt_tax_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.AltTaxAmount</t>
   </si>
   <si>
-    <t>level23Data.supplierVatRegistrationNumber</t>
-  </si>
-  <si>
     <t>level3.alt_tax_id</t>
   </si>
   <si>
     <t>Transaction.Level3.AltTaxId</t>
   </si>
   <si>
-    <t>level23Data.totaldiscountAmount</t>
-  </si>
-  <si>
     <t>level3.discount_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.DiscountAmount</t>
   </si>
   <si>
-    <t>level23Data.dutyAmount</t>
-  </si>
-  <si>
     <t>level3.duty_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.DutyAmount</t>
   </si>
   <si>
-    <t>level23Data.freightAmount</t>
-  </si>
-  <si>
     <t>level3.freight_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.FreightAmount</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.commodityCode</t>
-  </si>
-  <si>
     <t>level3.line_items.commodity_code</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.CommodityCode</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.itemDescription</t>
-  </si>
-  <si>
     <t>level3.line_items.description</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.Description</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.discountAmount</t>
-  </si>
-  <si>
     <t>level3.line_items.discount_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.DiscountAmount</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.discountIndicator</t>
-  </si>
-  <si>
     <t>level3.line_items.discount_indicator</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.DiscountIndicator</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.taxIndicator</t>
-  </si>
-  <si>
     <t>level3.line_items.gross_net_indicator</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.GrossNetIndicator</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.lineItemTotal</t>
-  </si>
-  <si>
     <t>level3.line_items.line_item_total</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.LineItemTotal</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.productCode</t>
-  </si>
-  <si>
     <t>level3.line_items.product_code</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.ProductCode</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.qty</t>
-  </si>
-  <si>
     <t>level3.line_items.quantity</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.Quantity</t>
   </si>
   <si>
-    <t>level23Data.level23DataItems.lineItemTax</t>
-  </si>
-  <si>
     <t>level3.line_items.tax_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.TaxAmount</t>
   </si>
   <si>
-    <t>level23Data.level23DataItems.lineItemTaxRate</t>
-  </si>
-  <si>
     <t>level3.line_items.tax_rate</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.TaxRate</t>
   </si>
   <si>
-    <t xml:space="preserve">
-level23Data.itemDetails.taxType</t>
-  </si>
-  <si>
     <t>level3.line_items.tax_type</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.TaxType</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.unitPrice</t>
-  </si>
-  <si>
     <t>level3.line_items.unit_cost</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.UnitCost</t>
   </si>
   <si>
-    <t>level23Data.itemDetails.unitOfMeasurement</t>
-  </si>
-  <si>
     <t>level3.line_items.unit_of_measure</t>
   </si>
   <si>
     <t>Transaction.Level3.LineItem.UnitOfMeasure</t>
   </si>
   <si>
-    <t>level23Data.shipFromPostalCode</t>
-  </si>
-  <si>
     <t>level3.ship_from_zip</t>
   </si>
   <si>
     <t>Transaction.Level3.ShipFromZip</t>
   </si>
   <si>
-    <t>shippingAddress.address.street</t>
-  </si>
-  <si>
     <t>level3.ship_to_address.address_1</t>
   </si>
   <si>
@@ -492,18 +426,12 @@
     <t>Transaction.Level3.ShipToAddress.City</t>
   </si>
   <si>
-    <t>level23Data.destinationCountryCode and shippingAddress.address.country</t>
-  </si>
-  <si>
     <t>level3.ship_to_address.country</t>
   </si>
   <si>
     <t>Transaction.Level3.ShipToAddress.Country</t>
   </si>
   <si>
-    <t>level23Data.customerReference</t>
-  </si>
-  <si>
     <t>level3.ship_to_address.customer_number</t>
   </si>
   <si>
@@ -519,9 +447,6 @@
     <t>Transaction.Level3.ShipToAddress.Email</t>
   </si>
   <si>
-    <t>shippingAddress.firstName + shippingAddress.lastName</t>
-  </si>
-  <si>
     <t>level3.ship_to_address.name</t>
   </si>
   <si>
@@ -546,27 +471,18 @@
     <t>Transaction.Level3.ShipToAddress.State</t>
   </si>
   <si>
-    <t>level23Data.destinationPostalCode</t>
-  </si>
-  <si>
     <t>level3.ship_to_address.zip</t>
   </si>
   <si>
     <t>Transaction.Level3.ShipToAddress.Zip</t>
   </si>
   <si>
-    <t>level23Data. totalLineItemTax</t>
-  </si>
-  <si>
     <t>level3.tax_amount</t>
   </si>
   <si>
     <t>Transaction.Level3.TaxAmount</t>
   </si>
   <si>
-    <t>level23Data.taxRate</t>
-  </si>
-  <si>
     <t>level3.tax_rate</t>
   </si>
   <si>
@@ -702,10 +618,6 @@
     <t>Transaction.SoftDescriptor.Street</t>
   </si>
   <si>
-    <t xml:space="preserve">transactionDetails.splitShipment.totalCount
-transactionDetails.splitShipment.finalShipment </t>
-  </si>
-  <si>
     <t>split_shipment_number</t>
   </si>
   <si>
@@ -752,9 +664,6 @@
   </si>
   <si>
     <t>Transaction.StoredCredentials.TransactionId</t>
-  </si>
-  <si>
-    <t>level23Data.totalTaxAmount</t>
   </si>
   <si>
     <t>tax1_amount</t>
@@ -923,10 +832,6 @@
   </si>
   <si>
     <t>xx/xx</t>
-  </si>
-  <si>
-    <t>totalCount = Two digits after "/"
-When first two digits (prior to "/") = last two digits (after "/"), then finalShipment = "True"; otherwise "False"</t>
   </si>
   <si>
     <t>Commerce Hub has a 12 character limit for this element.</t>
@@ -959,24 +864,6 @@
 &lt;space&gt;</t>
   </si>
   <si>
-    <t>UNKNOWN
-FEDERAL
-STATE
-CITY
-LOCAL
-MUNICIPAL
-OTHER
-VALUE
-GOODS
-PROVINCIAL
-HARMONIZED
-QUEBE
-ROOM
-OCCUPANY
-ENERGY
-NOT_SUPPORTED</t>
-  </si>
-  <si>
     <t>TransactionDetails.reversalReasonCode</t>
   </si>
   <si>
@@ -987,28 +874,6 @@
   </si>
   <si>
     <t>AmountComponents.convenienceFee</t>
-  </si>
-  <si>
-    <t>1
-2
-3
-4
-5
-6
-7
-8
-R</t>
-  </si>
-  <si>
-    <t>transactioninteraction.origin = MOTO and additionaldatacommon.billPaymentType = SINGLE
-transactioninteraction.origin = MOTO and billPaymentType = RECURRING
-transactioninteraction.origin = MOTO and billPaymentType =  INSTALLMENT
-transactioninteraction.origin = MOTO and billPaymentType =  DEFERRED
-transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator = SECURE_ECOM
-transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator = NON_AUTH_ECOM
-transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator  = CHANNEL_ENCRYPTED
-transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator  = NON_SECURE_ECOM
-transactioninteraction.origin = POS</t>
   </si>
   <si>
     <t>Null or 0
@@ -1366,9 +1231,6 @@
     <t>TransactionResult.Expiry_Date</t>
   </si>
   <si>
-    <t>PaymentReceipt.ProcessorResponseDetails.ApprovalCode</t>
-  </si>
-  <si>
     <t>TransactionResult.Authorization_Num</t>
   </si>
   <si>
@@ -1476,9 +1338,6 @@
   </si>
   <si>
     <t>TransactionResult.CAVV_Response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gatewayresponse.transactionProcessingDetails.transactionTimeStamp </t>
   </si>
   <si>
     <t>retrieval_ref_no</t>
@@ -1711,12 +1570,466 @@
   <si>
     <t>discover.networkOriginalAmount</t>
   </si>
+  <si>
+    <t xml:space="preserve">transactionDetails.splitShipment.totalCount
+transactionDetails.splitShipment.sequenceno
+transactionDetails.splitShipment.finalShipment </t>
+  </si>
+  <si>
+    <t>totalCount = Two digits after "/"
+sequenceno = Two digits before "/"
+When first two digits (prior to "/") = last two digits (after "/"), then finalShipment = "True"; otherwise "False"</t>
+  </si>
+  <si>
+    <t>stored_credentals.authorization_type_override</t>
+  </si>
+  <si>
+    <t>R
+A
+E</t>
+  </si>
+  <si>
+    <t>transacrtionDetails.authorizationTypeIndicator</t>
+  </si>
+  <si>
+    <t>REAUTH
+**No Equivalent for A
+ESTIMATED</t>
+  </si>
+  <si>
+    <t>stored_credentals.protectbuy_indicator</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Request element is not required in Commerce Hub payload for Discover</t>
+  </si>
+  <si>
+    <t>networkDetails.transactionIdentifier</t>
+  </si>
+  <si>
+    <t>Enriched by MarketPlace</t>
+  </si>
+  <si>
+    <t>dynamicDescriptors.subMerchantId</t>
+  </si>
+  <si>
+    <t>additionalDataCommon.keyValuePair</t>
+  </si>
+  <si>
+    <t>amountComponents.taxAmounts.taxDetails.taxAmount
+amountComponents.taxAmounts.taxDetails.taxType</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set taxType = FEDERAL</t>
+  </si>
+  <si>
+    <t>amountComponents.taxAmounts.taxDetails.taxRate
+amountComponents.taxAmounts.taxDetails.taxType</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set taxType = VAT</t>
+  </si>
+  <si>
+    <t>merchantDetails.vatRegistrationNumber</t>
+  </si>
+  <si>
+    <t>amountComponents.priceAdjustmentDetails.adjustmentAmount
+amountComponents.priceAdjustmentDetails.adjustmentType</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set adjustmentType = DISCOUNT</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set taxType = DUTY</t>
+  </si>
+  <si>
+    <t>amountComponents.freightAmount</t>
+  </si>
+  <si>
+    <t>shipperAddress.address.postalCode</t>
+  </si>
+  <si>
+    <t>shippingAddress.address.houseNumberOrName
+shippingAddress.address.street</t>
+  </si>
+  <si>
+    <t>shippingAddress.address.country</t>
+  </si>
+  <si>
+    <t>customer.merchantCustomerId</t>
+  </si>
+  <si>
+    <t>shippingAddress.firstName
+shippingAddress.lastName</t>
+  </si>
+  <si>
+    <t>OrderData.itemDetails.commodityCode</t>
+  </si>
+  <si>
+    <t>OrderData.itemDetails.itemDescription</t>
+  </si>
+  <si>
+    <t>orderData.itemDetails.amountComponents.priceAdjustmentDetails.adjustmentAmount</t>
+  </si>
+  <si>
+    <t>No mapping is required from Payeezy to Commerce Hub. Commerce Hub will derive this field based on discountAmount field.</t>
+  </si>
+  <si>
+    <t>No direct mapping for this field. Use appropriate net and gross amount element for Line Item Total.</t>
+  </si>
+  <si>
+    <t>orderData.itemDetails.amountComponents.grossAmount 
+OR
+orderData.itemDetails.amountComponents.netAmount</t>
+  </si>
+  <si>
+    <t>OrderData.itemDetails.productUPC</t>
+  </si>
+  <si>
+    <t>OrderData.itemDetails.quantity</t>
+  </si>
+  <si>
+    <t>orderData.itemDetails.amountComponents.taxAmounts.taxDetails.taxRate</t>
+  </si>
+  <si>
+    <t>orderData.itemDetails.amountComponents.taxAmounts.taxDetails.taxAmount</t>
+  </si>
+  <si>
+    <t>UNKNOWN
+FEDERAL
+STATE
+CITY
+LOCAL
+MUNICIPAL
+OTHER
+VAT
+GST
+PPST
+HST
+QST
+ROOM
+OCCUPANY
+ENERGY
+NOT_SUPPORTED</t>
+  </si>
+  <si>
+    <t>OrderData.itemDetails.amountComponents.unitPrice</t>
+  </si>
+  <si>
+    <t>OrderData.itemDetails.unitOfMeasurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+orderData.itemDetails.amountComponents.taxAmounts.taxType</t>
+  </si>
+  <si>
+    <t>shippingAddress.address.postalCode</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.  No transformation required.
+Set taxType = LOCAL</t>
+  </si>
+  <si>
+    <t>three_d_secure_program_protocol</t>
+  </si>
+  <si>
+    <t>Transaction.ThreeDSecureProgramProtocol</t>
+  </si>
+  <si>
+    <t>Transaction.ThreeDSecureDirectoryServerTransactionId</t>
+  </si>
+  <si>
+    <t>three_d_secure_directory_server_transaction_id</t>
+  </si>
+  <si>
+    <t>additionalData3DS.versionData3DS.recommendedVersion</t>
+  </si>
+  <si>
+    <t>additionalData3DS.dsTransactionId</t>
+  </si>
+  <si>
+    <t>Transaction.CAVV</t>
+  </si>
+  <si>
+    <t>mpiData3ds.cavv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non 3DS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+transactioninteraction.origin = MOTO and additionaldatacommon.billPaymentType = SINGLE
+transactioninteraction.origin = MOTO and billPaymentType = RECURRING
+transactioninteraction.origin = MOTO and billPaymentType =  INSTALLMENT
+transactioninteraction.origin = MOTO and billPaymentType =  DEFERRED
+transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator = SECURE_ECOM
+transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator = NON_AUTH_ECOM
+transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator  = CHANNEL_ENCRYPTED
+transactioninteraction.origin = ECOM and  transactioninteraction.eciIndicator  = NON_SECURE_ECOM
+transactioninteraction.origin = POS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3DS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Allows same value as Payeezy Gateway Direct.  No transformation required.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1
+2
+3
+4
+5
+6
+7
+8
+R</t>
+  </si>
+  <si>
+    <t>cavv_response</t>
+  </si>
+  <si>
+    <t>networkDetails.cavvResponseCode</t>
+  </si>
+  <si>
+    <t>A (Visa)
+5 (Amex)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visa:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Amex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+0
+6
+B
+C
+D</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non 3DS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+transactionInteraction.origin
+transactionInteraction.eciIndicator
+additionalDataCommon.billPaymentType
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3DS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+mpiData3ds.eci</t>
+    </r>
+  </si>
+  <si>
+    <t>SCV</t>
+  </si>
+  <si>
+    <t>scv</t>
+  </si>
+  <si>
+    <t>card.securityCode
+additionalDataCommon.additionalData.securityCodeType</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set securityCodeType = SCV</t>
+  </si>
+  <si>
+    <t>EAN</t>
+  </si>
+  <si>
+    <t>ean</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set securityCodeType = EAN</t>
+  </si>
+  <si>
+    <t>Reference_3</t>
+  </si>
+  <si>
+    <t>Allows same value as Payeezy Gateway Direct.
+Set securityCodeType = FAC</t>
+  </si>
+  <si>
+    <t>ForeignAccessCode</t>
+  </si>
+  <si>
+    <t>foreign_access_code</t>
+  </si>
+  <si>
+    <t>VirtualCard</t>
+  </si>
+  <si>
+    <t>virtual_card</t>
+  </si>
+  <si>
+    <t>CurrentBalance</t>
+  </si>
+  <si>
+    <t>current_balance</t>
+  </si>
+  <si>
+    <t>balances.endingBalance</t>
+  </si>
+  <si>
+    <t>PreviousBalance</t>
+  </si>
+  <si>
+    <t>previous_balance</t>
+  </si>
+  <si>
+    <t>blanaces.begginingBalance</t>
+  </si>
+  <si>
+    <t>ValueLinkAuthCode</t>
+  </si>
+  <si>
+    <t>valuelink_auth_code</t>
+  </si>
+  <si>
+    <t>processorResponseDetails.approvalCode</t>
+  </si>
+  <si>
+    <t>PaymentReceipt.ProcessorResponseDetails.referenceNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transactionProcessingDetails.transactionTimestamp </t>
+  </si>
+  <si>
+    <t>AmountRequested</t>
+  </si>
+  <si>
+    <t>amount_requested</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1772,6 +2085,15 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2022,7 +2344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2035,11 +2357,146 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2050,116 +2507,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2579,8 +2937,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}" name="Table2" displayName="Table2" ref="A2:C101" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A2:C101" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}" name="Table2" displayName="Table2" ref="A2:C111" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+  <autoFilter ref="A2:C111" xr:uid="{23A5E92F-3733-4277-B08A-B5E97721C94C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E666DADC-84D2-4877-BAAE-923242B09F63}" name="XML/SOAP" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{699359E8-EFCB-4F64-A331-9A4839005E29}" name="JSON" dataDxfId="15"/>
@@ -2591,8 +2949,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}" name="Table3" displayName="Table3" ref="D2:E101" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="D2:E101" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}" name="Table3" displayName="Table3" ref="D2:E111" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="D2:E111" xr:uid="{307A5602-9DF2-4692-923A-9E9C1414FFA7}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{86AFE0B7-48FF-4118-8BF6-4F37A30309B1}" name="Commerce Hub Element" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{B41F94A8-69DE-4A58-A21D-0F385CB0803B}" name="Commerce Hub Equivalent Value" dataDxfId="9"/>
@@ -2602,8 +2960,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}" name="Table4" displayName="Table4" ref="A2:C124" totalsRowShown="0" tableBorderDxfId="8">
-  <autoFilter ref="A2:C124" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}" name="Table4" displayName="Table4" ref="A2:C128" totalsRowShown="0" tableBorderDxfId="8">
+  <autoFilter ref="A2:C128" xr:uid="{5663789E-B44B-45A8-83F2-DDAF7C9D605D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CF21D4EC-8E0A-468E-A201-9710382A0879}" name="XML/SOAP" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{E857725E-DB5F-4D2C-96AB-69508E1ADBCA}" name="JSON" dataDxfId="6"/>
@@ -2614,8 +2972,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}" name="Table5" displayName="Table5" ref="D2:E124" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="D2:E124" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}" name="Table5" displayName="Table5" ref="D2:E128" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="D2:E128" xr:uid="{0F8C93BF-822F-4480-AF24-81F0DF0A6C6A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9B6E7F04-F150-4930-AE1B-E4C7C335E2FD}" name="Commerce Hub Element" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{F6520EC4-61EB-4EFE-8BEB-B9AAF927CF1E}" name="Commerce Hub Equivalent Value" dataDxfId="0"/>
@@ -2921,57 +3279,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439F1F15-D443-4604-BD21-4221524F45CB}">
-  <dimension ref="A1:CN101"/>
+  <dimension ref="A1:CN111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.7265625" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" customWidth="1"/>
     <col min="3" max="3" width="19.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="65.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="100.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="48" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="E1" s="50"/>
+      <c r="A1" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:92" s="6" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>2</v>
@@ -2985,30 +3343,30 @@
     </row>
     <row r="4" spans="1:92" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>274</v>
+        <v>230</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>3</v>
@@ -3019,64 +3377,64 @@
     </row>
     <row r="6" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="29" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="29" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:92" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="29" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3168,25 +3526,25 @@
     </row>
     <row r="10" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="29" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="29" t="s">
@@ -3198,10 +3556,10 @@
     </row>
     <row r="12" spans="1:92" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="29" t="s">
@@ -3213,10 +3571,10 @@
     </row>
     <row r="13" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="29" t="s">
@@ -3226,192 +3584,196 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="29" t="s">
-        <v>236</v>
+      <c r="D14" s="56" t="s">
+        <v>485</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>289</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="29" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="21" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:92" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A21" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>479</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:92" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="18"/>
+        <v>192</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>256</v>
+      </c>
       <c r="D23" s="29" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>289</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="29" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="29" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -3503,122 +3865,122 @@
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C27" s="18"/>
-      <c r="D27" s="25" t="s">
-        <v>3</v>
+      <c r="D27" s="29" t="s">
+        <v>483</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="29" t="s">
-        <v>199</v>
+        <v>2</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>289</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C29" s="18"/>
-      <c r="D29" s="29" t="s">
-        <v>196</v>
+      <c r="D29" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>289</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="29" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="29" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="29" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="F33"/>
       <c r="G33"/>
@@ -3709,468 +4071,468 @@
       <c r="CN33"/>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A34" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>287</v>
+      <c r="A34" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="29" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A36" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>2</v>
+      <c r="A36" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
+      <c r="A37" s="16" t="s">
+        <v>154</v>
+      </c>
       <c r="B37" s="17" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C37" s="18"/>
       <c r="D37" s="29" t="s">
-        <v>315</v>
+        <v>152</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A38" s="16" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C38" s="18"/>
       <c r="D38" s="29" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>289</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A39" s="16" t="s">
-        <v>172</v>
-      </c>
+      <c r="A39" s="16"/>
       <c r="B39" s="17" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C39" s="18"/>
       <c r="D39" s="29" t="s">
-        <v>170</v>
+        <v>282</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="40" spans="1:92" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="16" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C40" s="18"/>
       <c r="D40" s="29" t="s">
-        <v>167</v>
+        <v>487</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:92" x14ac:dyDescent="0.35">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C41" s="18"/>
       <c r="D41" s="29" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>289</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A42" s="16" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="29" t="s">
-        <v>161</v>
+        <v>513</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A43" s="16" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="29" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A44" s="16" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="29" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:92" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="29" t="s">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A46" s="16" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="29" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A47" s="16" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="29" t="s">
-        <v>146</v>
+        <v>497</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A48" s="16" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="29" t="s">
-        <v>143</v>
+        <v>496</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="29" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E49" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="29" t="s">
-        <v>137</v>
+        <v>495</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="29" t="s">
-        <v>134</v>
+        <v>494</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>291</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C52" s="18"/>
       <c r="D52" s="29" t="s">
-        <v>131</v>
+        <v>511</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="29" t="s">
-        <v>128</v>
+        <v>510</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="232" x14ac:dyDescent="0.35">
       <c r="A54" s="16" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="18"/>
+        <v>115</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>261</v>
+      </c>
       <c r="D54" s="29" t="s">
-        <v>125</v>
+        <v>512</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>289</v>
+        <v>509</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C55" s="18"/>
       <c r="D55" s="29" t="s">
-        <v>122</v>
+        <v>507</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="29" t="s">
-        <v>119</v>
+        <v>508</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
-        <v>116</v>
+        <v>506</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C58" s="18"/>
       <c r="D58" s="29" t="s">
-        <v>113</v>
+        <v>505</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A59" s="16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C59" s="18"/>
       <c r="D59" s="29" t="s">
-        <v>110</v>
+        <v>504</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="29" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
-        <v>104</v>
+        <v>2</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="29" t="s">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>289</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C63" s="18"/>
       <c r="D63" s="29" t="s">
-        <v>98</v>
+        <v>500</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="29" t="s">
-        <v>95</v>
+        <v>499</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -4182,410 +4544,408 @@
       </c>
       <c r="C65" s="18"/>
       <c r="D65" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E65" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="16" t="s">
+      <c r="B66" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>90</v>
       </c>
       <c r="C66" s="18"/>
       <c r="D66" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>87</v>
       </c>
       <c r="C67" s="18"/>
       <c r="D67" s="29" t="s">
-        <v>86</v>
+        <v>490</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>289</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="29" t="s">
-        <v>83</v>
+        <v>489</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="29" t="s">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>289</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>294</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C70" s="18"/>
       <c r="D70" s="29" t="s">
-        <v>293</v>
+        <v>82</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>295</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="29" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="C73" s="18"/>
+      <c r="D73" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="D72" s="29" t="s">
+      <c r="B74" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="C74" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="17" t="s">
+      <c r="B75" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D73" s="29" t="s">
+      <c r="C75" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D75" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E73" s="30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="29" t="s">
-        <v>301</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="29" t="s">
-        <v>65</v>
-      </c>
       <c r="E75" s="30" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="29" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="29" t="s">
-        <v>303</v>
+        <v>65</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C78" s="18"/>
-      <c r="D78" s="38" t="s">
-        <v>304</v>
+      <c r="D78" s="29" t="s">
+        <v>269</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="29" t="s">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C80" s="18"/>
-      <c r="D80" s="29" t="s">
-        <v>53</v>
+      <c r="D80" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="81" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="29" t="s">
-        <v>305</v>
+        <v>56</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A82" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="29" t="s">
-        <v>306</v>
+        <v>53</v>
       </c>
       <c r="E82" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:92" ht="29" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A83" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="29" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:92" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="84" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="18"/>
       <c r="D84" s="29" t="s">
-        <v>44</v>
+        <v>273</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:92" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:92" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="29" t="s">
-        <v>41</v>
+        <v>275</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A86" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="20"/>
       <c r="D86" s="29" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A87" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A88" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="E87" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>33</v>
-      </c>
       <c r="E88" s="30" t="s">
-        <v>311</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C89" s="18"/>
       <c r="D89" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:92" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:92" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A90" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="91" spans="1:92" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A91" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="D91" s="29" t="s">
-        <v>24</v>
-      </c>
       <c r="E91" s="30" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="F91"/>
       <c r="G91"/>
@@ -4677,115 +5037,117 @@
     </row>
     <row r="92" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A92" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C92" s="18"/>
       <c r="D92" s="29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E92" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:92" x14ac:dyDescent="0.35">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="93" spans="1:92" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>279</v>
+      </c>
       <c r="D93" s="29" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E93" s="30" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A94" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="29" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:92" x14ac:dyDescent="0.35">
       <c r="A95" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C95" s="18"/>
       <c r="D95" s="29" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E95" s="30" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="96" spans="1:92" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="21" t="s">
-        <v>11</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:92" x14ac:dyDescent="0.35">
+      <c r="A96" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C96" s="18"/>
       <c r="D96" s="29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E96" s="30" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="29" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E97" s="30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>7</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A98" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="29" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E98" s="30" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="29" t="s">
@@ -4797,9 +5159,11 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="17"/>
+        <v>7</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="C100" s="18"/>
       <c r="D100" s="29" t="s">
         <v>36</v>
@@ -4809,18 +5173,166 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="18"/>
+      <c r="D101" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B103" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="24"/>
-      <c r="D101" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="E101" s="30" t="s">
-        <v>289</v>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="59"/>
+      <c r="D104" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="C105" s="59"/>
+      <c r="D105" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="57" t="s">
+        <v>521</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="C106" s="59"/>
+      <c r="D106" s="60" t="s">
+        <v>522</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="61" t="s">
+        <v>530</v>
+      </c>
+      <c r="B107" s="63" t="s">
+        <v>531</v>
+      </c>
+      <c r="C107" s="59"/>
+      <c r="D107" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="57" t="s">
+        <v>534</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>535</v>
+      </c>
+      <c r="C108" s="59"/>
+      <c r="D108" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="E108" s="61" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="B109" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="53"/>
+      <c r="D109" s="54" t="s">
+        <v>532</v>
+      </c>
+      <c r="E109" s="55" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="57" t="s">
+        <v>539</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="C110" s="59"/>
+      <c r="D110" s="60" t="s">
+        <v>532</v>
+      </c>
+      <c r="E110" s="55" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="57" t="s">
+        <v>541</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C111" s="59"/>
+      <c r="D111" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111" s="30" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4839,365 +5351,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A10033-FA02-4621-BCA6-E2FC6A173885}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E128"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.26953125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="41" customWidth="1"/>
+    <col min="2" max="2" width="42.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="40" customWidth="1"/>
     <col min="4" max="4" width="109.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="85.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
-        <v>504</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="50"/>
+      <c r="A1" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>475</v>
+      <c r="A2" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>440</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>473</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>476</v>
+        <v>439</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>441</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>477</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>470</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>478</v>
+        <v>436</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>443</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>479</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>468</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>480</v>
+        <v>434</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>445</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>467</v>
+        <v>432</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>465</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>482</v>
+        <v>431</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>430</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>447</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="30" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>462</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>484</v>
+        <v>428</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>449</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="30" t="s">
-        <v>460</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="43"/>
+        <v>425</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="D8" s="29" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="30" t="s">
-        <v>459</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>487</v>
+        <v>424</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>452</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>455</v>
-      </c>
-      <c r="C10" s="43"/>
+        <v>421</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="42"/>
       <c r="D10" s="29" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>452</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>488</v>
-      </c>
       <c r="D11" s="29" t="s">
-        <v>451</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>489</v>
+        <v>416</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>449</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>490</v>
+        <v>415</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>455</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>491</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>493</v>
+        <v>412</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>411</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>458</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>445</v>
+        <v>553</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>492</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="43"/>
+        <v>410</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="42"/>
       <c r="D14" s="29" t="s">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15" s="43"/>
+        <v>409</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="42"/>
       <c r="D15" s="29" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="C16" s="43"/>
+        <v>406</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="42"/>
       <c r="D16" s="29" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="30" t="s">
-        <v>437</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>436</v>
-      </c>
-      <c r="C17" s="43"/>
+        <v>403</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="42"/>
       <c r="D17" s="29" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="30" t="s">
-        <v>434</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="C18" s="43"/>
+        <v>400</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="C18" s="42"/>
       <c r="D18" s="29" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="C19" s="43"/>
+        <v>397</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="C19" s="42"/>
       <c r="D19" s="29" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="C20" s="43"/>
+        <v>394</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="42"/>
       <c r="D20" s="29" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>424</v>
-      </c>
-      <c r="C21" s="43"/>
+        <v>391</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="C21" s="42"/>
       <c r="D21" s="29" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>421</v>
-      </c>
-      <c r="C22" s="43"/>
+        <v>388</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="42"/>
       <c r="D22" s="29" t="s">
-        <v>495</v>
+        <v>460</v>
       </c>
       <c r="E22" s="30" t="s">
         <v>2</v>
@@ -5205,14 +5717,14 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="43"/>
+        <v>386</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="42"/>
       <c r="D23" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E23" s="30" t="s">
         <v>2</v>
@@ -5220,29 +5732,29 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="43"/>
+        <v>385</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="42"/>
       <c r="D24" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="C25" s="43"/>
+        <v>384</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C25" s="42"/>
       <c r="D25" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E25" s="30" t="s">
         <v>2</v>
@@ -5250,29 +5762,29 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="B26" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="29" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="43"/>
+        <v>381</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="42"/>
       <c r="D27" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E27" s="30" t="s">
         <v>2</v>
@@ -5280,106 +5792,106 @@
     </row>
     <row r="28" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="B28" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>412</v>
+      <c r="C28" s="42" t="s">
+        <v>378</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="C29" s="43"/>
+        <v>377</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="42"/>
       <c r="D29" s="29" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="B30" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="29" t="s">
-        <v>408</v>
+        <v>552</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A31" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="B31" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="43" t="s">
-        <v>406</v>
+      <c r="C31" s="42" t="s">
+        <v>373</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>496</v>
+        <v>461</v>
       </c>
       <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="B32" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="42"/>
       <c r="D32" s="29" t="s">
-        <v>497</v>
+        <v>462</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="B33" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>498</v>
+        <v>463</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C34" s="43"/>
+        <v>370</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="D34" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>2</v>
@@ -5387,14 +5899,14 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="43"/>
+        <v>369</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="42"/>
       <c r="D35" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E35" s="30" t="s">
         <v>2</v>
@@ -5402,14 +5914,14 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="43"/>
+        <v>368</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="42"/>
       <c r="D36" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E36" s="30" t="s">
         <v>2</v>
@@ -5417,44 +5929,46 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="43"/>
+        <v>367</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="42"/>
       <c r="D37" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E37" s="30" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A38" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="C38" s="43"/>
+        <v>366</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>527</v>
+      </c>
       <c r="D38" s="29" t="s">
-        <v>321</v>
+        <v>526</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>2</v>
+        <v>528</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="43"/>
+        <v>364</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="42"/>
       <c r="D39" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>2</v>
@@ -5462,14 +5976,14 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="43"/>
+        <v>363</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="42"/>
       <c r="D40" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E40" s="30" t="s">
         <v>2</v>
@@ -5477,14 +5991,14 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="43"/>
+        <v>362</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="42"/>
       <c r="D41" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E41" s="30" t="s">
         <v>2</v>
@@ -5492,29 +6006,29 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="B42" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="43"/>
+      <c r="C42" s="42"/>
       <c r="D42" s="29" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A43" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" s="43"/>
+        <v>358</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="42"/>
       <c r="D43" s="29" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="E43" s="30" t="s">
         <v>2</v>
@@ -5522,59 +6036,59 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="30" t="s">
-        <v>389</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="C44" s="43"/>
+        <v>356</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="42"/>
       <c r="D44" s="29" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="C45" s="43"/>
+        <v>355</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="42"/>
       <c r="D45" s="29" t="s">
         <v>65</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="30" t="s">
-        <v>386</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="43"/>
+        <v>353</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="42"/>
       <c r="D46" s="29" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" s="43"/>
+        <v>352</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="42"/>
       <c r="D47" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E47" s="30" t="s">
         <v>2</v>
@@ -5582,14 +6096,14 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>383</v>
-      </c>
-      <c r="C48" s="43"/>
+        <v>351</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>350</v>
+      </c>
+      <c r="C48" s="42"/>
       <c r="D48" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E48" s="30" t="s">
         <v>2</v>
@@ -5597,14 +6111,14 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="B49" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="43"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E49" s="30" t="s">
         <v>2</v>
@@ -5612,44 +6126,44 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="B50" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="43"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="29" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="B51" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="43"/>
+      <c r="C51" s="42"/>
       <c r="D51" s="29" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="E51" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="43"/>
+        <v>345</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="42"/>
       <c r="D52" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E52" s="30" t="s">
         <v>2</v>
@@ -5657,14 +6171,14 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="30" t="s">
-        <v>377</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C53" s="43"/>
+        <v>344</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="42"/>
       <c r="D53" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E53" s="30" t="s">
         <v>2</v>
@@ -5672,14 +6186,14 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="43"/>
+        <v>343</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="42"/>
       <c r="D54" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E54" s="30" t="s">
         <v>2</v>
@@ -5687,14 +6201,14 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="43"/>
+        <v>342</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="42"/>
       <c r="D55" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E55" s="30" t="s">
         <v>2</v>
@@ -5702,14 +6216,14 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="30" t="s">
-        <v>374</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="C56" s="43"/>
+        <v>341</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E56" s="30" t="s">
         <v>2</v>
@@ -5717,14 +6231,14 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="43"/>
+        <v>340</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="42"/>
       <c r="D57" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E57" s="30" t="s">
         <v>2</v>
@@ -5732,14 +6246,14 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C58" s="43"/>
+        <v>339</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="42"/>
       <c r="D58" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E58" s="30" t="s">
         <v>2</v>
@@ -5747,14 +6261,14 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="43"/>
+        <v>338</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="42"/>
       <c r="D59" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E59" s="30" t="s">
         <v>2</v>
@@ -5762,14 +6276,14 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="43"/>
+        <v>337</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="42"/>
       <c r="D60" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E60" s="30" t="s">
         <v>2</v>
@@ -5777,14 +6291,14 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="43"/>
+        <v>336</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="42"/>
       <c r="D61" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E61" s="30" t="s">
         <v>2</v>
@@ -5792,14 +6306,14 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>367</v>
-      </c>
-      <c r="C62" s="43"/>
+        <v>335</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C62" s="42"/>
       <c r="D62" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E62" s="30" t="s">
         <v>2</v>
@@ -5807,14 +6321,14 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="C63" s="43"/>
+        <v>333</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="42"/>
       <c r="D63" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E63" s="30" t="s">
         <v>2</v>
@@ -5822,14 +6336,14 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="43"/>
+        <v>332</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="42"/>
       <c r="D64" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E64" s="30" t="s">
         <v>2</v>
@@ -5837,14 +6351,14 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C65" s="43"/>
+        <v>331</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="42"/>
       <c r="D65" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E65" s="30" t="s">
         <v>2</v>
@@ -5852,14 +6366,14 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="43"/>
+        <v>330</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="42"/>
       <c r="D66" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E66" s="30" t="s">
         <v>2</v>
@@ -5867,14 +6381,14 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="43"/>
+        <v>329</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="42"/>
       <c r="D67" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E67" s="30" t="s">
         <v>2</v>
@@ -5882,14 +6396,14 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="43"/>
+        <v>328</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="42"/>
       <c r="D68" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E68" s="30" t="s">
         <v>2</v>
@@ -5897,14 +6411,14 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="43"/>
+        <v>327</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="42"/>
       <c r="D69" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E69" s="30" t="s">
         <v>2</v>
@@ -5912,14 +6426,14 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="43"/>
+        <v>326</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" s="42"/>
       <c r="D70" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E70" s="30" t="s">
         <v>2</v>
@@ -5927,14 +6441,14 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" s="43"/>
+        <v>325</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="42"/>
       <c r="D71" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E71" s="30" t="s">
         <v>2</v>
@@ -5942,14 +6456,14 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="43"/>
+        <v>324</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" s="42"/>
       <c r="D72" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E72" s="30" t="s">
         <v>2</v>
@@ -5957,14 +6471,14 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="43"/>
+        <v>323</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" s="42"/>
       <c r="D73" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>2</v>
@@ -5972,14 +6486,14 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="43"/>
+        <v>322</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C74" s="42"/>
       <c r="D74" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>2</v>
@@ -5987,14 +6501,14 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C75" s="43"/>
+        <v>321</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="42"/>
       <c r="D75" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>2</v>
@@ -6002,14 +6516,14 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="43"/>
+        <v>320</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="42"/>
       <c r="D76" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E76" s="30" t="s">
         <v>2</v>
@@ -6017,14 +6531,14 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77" s="43"/>
+        <v>319</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="42"/>
       <c r="D77" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E77" s="30" t="s">
         <v>2</v>
@@ -6032,14 +6546,14 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C78" s="43"/>
+        <v>318</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" s="42"/>
       <c r="D78" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E78" s="30" t="s">
         <v>2</v>
@@ -6047,14 +6561,14 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="43"/>
+        <v>317</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="42"/>
       <c r="D79" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E79" s="30" t="s">
         <v>2</v>
@@ -6062,14 +6576,14 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" s="43"/>
+        <v>316</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" s="42"/>
       <c r="D80" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E80" s="30" t="s">
         <v>2</v>
@@ -6077,14 +6591,14 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" s="43"/>
+        <v>315</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="42"/>
       <c r="D81" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E81" s="30" t="s">
         <v>2</v>
@@ -6092,14 +6606,14 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="B82" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="43"/>
+        <v>314</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="42"/>
       <c r="D82" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E82" s="30" t="s">
         <v>2</v>
@@ -6107,121 +6621,121 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="B83" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B83" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C83" s="43"/>
+      <c r="C83" s="42"/>
       <c r="D83" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="B84" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C84" s="43"/>
+      <c r="C84" s="42"/>
       <c r="D84" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="B85" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B85" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C85" s="43"/>
+      <c r="C85" s="42"/>
       <c r="D85" s="29" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="B86" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B86" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="43"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E86" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="B87" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="43"/>
+      <c r="C87" s="42"/>
       <c r="D87" s="29" t="s">
         <v>18</v>
       </c>
       <c r="E87" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>340</v>
-      </c>
-      <c r="C88" s="43"/>
+        <v>308</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C88" s="42"/>
       <c r="D88" s="29" t="s">
         <v>21</v>
       </c>
       <c r="E88" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A89" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>338</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>312</v>
+        <v>306</v>
+      </c>
+      <c r="B89" s="42" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>279</v>
       </c>
       <c r="D89" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E89" s="30" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="43"/>
+        <v>304</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="42"/>
       <c r="D90" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E90" s="30" t="s">
         <v>2</v>
@@ -6229,14 +6743,14 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="43"/>
+        <v>303</v>
+      </c>
+      <c r="B91" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="42"/>
       <c r="D91" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E91" s="30" t="s">
         <v>2</v>
@@ -6244,14 +6758,14 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="B92" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="43"/>
+        <v>302</v>
+      </c>
+      <c r="B92" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="42"/>
       <c r="D92" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E92" s="30" t="s">
         <v>2</v>
@@ -6259,14 +6773,14 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B93" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" s="43"/>
+        <v>301</v>
+      </c>
+      <c r="B93" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="42"/>
       <c r="D93" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E93" s="30" t="s">
         <v>2</v>
@@ -6274,29 +6788,29 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="B94" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="C94" s="43"/>
+        <v>300</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="42"/>
       <c r="D94" s="29" t="s">
-        <v>500</v>
+        <v>465</v>
       </c>
       <c r="E94" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="B95" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="43"/>
+        <v>299</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="42"/>
       <c r="D95" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E95" s="30" t="s">
         <v>2</v>
@@ -6304,14 +6818,14 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B96" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="C96" s="43"/>
+        <v>198</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="42"/>
       <c r="D96" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E96" s="30" t="s">
         <v>2</v>
@@ -6319,14 +6833,14 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B97" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="C97" s="43"/>
+        <v>201</v>
+      </c>
+      <c r="B97" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="42"/>
       <c r="D97" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E97" s="30" t="s">
         <v>2</v>
@@ -6334,14 +6848,14 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B98" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C98" s="43"/>
+        <v>204</v>
+      </c>
+      <c r="B98" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="42"/>
       <c r="D98" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E98" s="30" t="s">
         <v>2</v>
@@ -6349,14 +6863,14 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="43"/>
+        <v>207</v>
+      </c>
+      <c r="B99" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C99" s="42"/>
       <c r="D99" s="29" t="s">
-        <v>329</v>
+        <v>481</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>2</v>
@@ -6364,14 +6878,14 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>330</v>
-      </c>
-      <c r="C100" s="43"/>
+        <v>298</v>
+      </c>
+      <c r="B100" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C100" s="42"/>
       <c r="D100" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E100" s="30" t="s">
         <v>2</v>
@@ -6379,14 +6893,14 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="B101" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="C101" s="43"/>
+        <v>295</v>
+      </c>
+      <c r="B101" s="42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C101" s="42"/>
       <c r="D101" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E101" s="30" t="s">
         <v>2</v>
@@ -6396,29 +6910,29 @@
       <c r="A102" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B102" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>310</v>
+      <c r="B102" s="42" t="s">
+        <v>293</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>277</v>
       </c>
       <c r="D102" s="29" t="s">
         <v>33</v>
       </c>
       <c r="E102" s="30" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="C103" s="43"/>
+        <v>292</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="42"/>
       <c r="D103" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E103" s="30" t="s">
         <v>2</v>
@@ -6426,29 +6940,29 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C104" s="43"/>
+      <c r="B104" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="42"/>
       <c r="D104" s="29" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B105" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" s="43"/>
+        <v>231</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C105" s="42"/>
       <c r="D105" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E105" s="30" t="s">
         <v>2</v>
@@ -6458,12 +6972,12 @@
       <c r="A106" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C106" s="43"/>
+      <c r="C106" s="42"/>
       <c r="D106" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E106" s="30" t="s">
         <v>2</v>
@@ -6471,14 +6985,14 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="B107" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="C107" s="43"/>
+        <v>290</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="C107" s="42"/>
       <c r="D107" s="29" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
       <c r="E107" s="30" t="s">
         <v>2</v>
@@ -6486,149 +7000,149 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B108" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="C108" s="43"/>
+        <v>165</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" s="42"/>
       <c r="D108" s="29" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="E108" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="C109" s="43"/>
+        <v>191</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="42"/>
       <c r="D109" s="29" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="E109" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" s="43"/>
+        <v>159</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C110" s="42"/>
       <c r="D110" s="29" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E110" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B111" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="C111" s="43"/>
+        <v>188</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="42"/>
       <c r="D111" s="29" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="E111" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B112" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="C112" s="43"/>
+        <v>185</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" s="42"/>
       <c r="D112" s="29" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E112" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="C113" s="43"/>
+        <v>162</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C113" s="42"/>
       <c r="D113" s="29" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="E113" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B114" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C114" s="43"/>
+        <v>174</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" s="42"/>
       <c r="D114" s="29" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="E114" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="43"/>
+        <v>168</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C115" s="42"/>
       <c r="D115" s="29" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="E115" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="B116" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C116" s="43"/>
+        <v>171</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C116" s="42"/>
       <c r="D116" s="29" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E116" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B117" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="43"/>
+        <v>176</v>
+      </c>
+      <c r="B117" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" s="42"/>
       <c r="D117" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E117" s="30" t="s">
         <v>2</v>
@@ -6638,12 +7152,12 @@
       <c r="A118" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B118" s="43" t="s">
+      <c r="B118" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C118" s="43"/>
+      <c r="C118" s="42"/>
       <c r="D118" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E118" s="30" t="s">
         <v>2</v>
@@ -6653,12 +7167,12 @@
       <c r="A119" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="43"/>
+      <c r="C119" s="42"/>
       <c r="D119" s="29" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="E119" s="30" t="s">
         <v>2</v>
@@ -6666,44 +7180,44 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B120" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="43"/>
+        <v>182</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C120" s="42"/>
       <c r="D120" s="29" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="E120" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="43"/>
+        <v>179</v>
+      </c>
+      <c r="B121" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" s="42"/>
       <c r="D121" s="29" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="E121" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="C122" s="43"/>
+        <v>287</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="C122" s="42"/>
       <c r="D122" s="29" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
       <c r="E122" s="30" t="s">
         <v>2</v>
@@ -6711,34 +7225,94 @@
     </row>
     <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="B123" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>501</v>
+        <v>285</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>466</v>
       </c>
       <c r="D123" s="29" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
       <c r="E123" s="30" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B124" s="45" t="s">
+      <c r="B124" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="45"/>
+      <c r="C124" s="44"/>
       <c r="D124" s="25" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="E124" s="30" t="s">
-        <v>503</v>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="B125" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="C125" s="62"/>
+      <c r="D125" s="60" t="s">
+        <v>545</v>
+      </c>
+      <c r="E125" s="30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="57" t="s">
+        <v>546</v>
+      </c>
+      <c r="B126" s="58" t="s">
+        <v>547</v>
+      </c>
+      <c r="C126" s="62"/>
+      <c r="D126" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="E126" s="30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="57" t="s">
+        <v>549</v>
+      </c>
+      <c r="B127" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="C127" s="62"/>
+      <c r="D127" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="E127" s="30" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="61" t="s">
+        <v>554</v>
+      </c>
+      <c r="B128" s="63" t="s">
+        <v>555</v>
+      </c>
+      <c r="C128" s="63"/>
+      <c r="D128" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="E128" s="30" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C2CFA-DB95-49D0-83F8-E30EE06636FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88223039-1FCA-4726-A755-4E18388F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="-21285" windowWidth="25245" windowHeight="19950" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="2" r:id="rId1"/>
@@ -1949,10 +1949,6 @@
     <t>scv</t>
   </si>
   <si>
-    <t>card.securityCode
-additionalDataCommon.additionalData.securityCodeType</t>
-  </si>
-  <si>
     <t>Allows same value as Payeezy Gateway Direct.
 Set securityCodeType = SCV</t>
   </si>
@@ -2023,6 +2019,10 @@
   </si>
   <si>
     <t>amount_requested</t>
+  </si>
+  <si>
+    <t>target.card.securityCode
+additionalDataCommon.additionalData.securityCodeType</t>
   </si>
 </sst>
 </file>
@@ -2344,7 +2344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2468,6 +2468,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2479,45 +2482,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3281,10 +3245,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439F1F15-D443-4604-BD21-4221524F45CB}">
   <dimension ref="A1:CN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3297,15 +3261,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:92" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:92" s="6" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -3592,7 +3556,7 @@
         <v>208</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="47" t="s">
         <v>485</v>
       </c>
       <c r="E14" s="30" t="s">
@@ -3681,36 +3645,36 @@
       </c>
     </row>
     <row r="20" spans="1:92" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="30" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.35">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="17" t="s">
         <v>478</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="55" t="s">
+      <c r="D21" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5216,14 +5180,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="57" t="s">
+      <c r="A104" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B104" s="58" t="s">
+      <c r="B104" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="C104" s="59"/>
-      <c r="D104" s="60" t="s">
+      <c r="C104" s="12"/>
+      <c r="D104" s="25" t="s">
         <v>519</v>
       </c>
       <c r="E104" s="30" t="s">
@@ -5231,14 +5195,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="57" t="s">
+      <c r="A105" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="60" t="s">
+      <c r="C105" s="12"/>
+      <c r="D105" s="25" t="s">
         <v>520</v>
       </c>
       <c r="E105" s="30" t="s">
@@ -5246,14 +5210,14 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="57" t="s">
+      <c r="A106" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B106" s="58" t="s">
+      <c r="B106" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C106" s="59"/>
-      <c r="D106" s="60" t="s">
+      <c r="C106" s="12"/>
+      <c r="D106" s="25" t="s">
         <v>522</v>
       </c>
       <c r="E106" s="30" t="s">
@@ -5261,73 +5225,73 @@
       </c>
     </row>
     <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="B107" s="63" t="s">
+      <c r="B107" s="44" t="s">
         <v>531</v>
       </c>
-      <c r="C107" s="59"/>
-      <c r="D107" s="60" t="s">
+      <c r="C107" s="12"/>
+      <c r="D107" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="E107" s="30" t="s">
         <v>532</v>
       </c>
-      <c r="E107" s="30" t="s">
+    </row>
+    <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="10" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="57" t="s">
+      <c r="B108" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="C108" s="12"/>
+      <c r="D108" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="E108" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="C108" s="59"/>
-      <c r="D108" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="E108" s="61" t="s">
+    </row>
+    <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="16" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="51" t="s">
+      <c r="B109" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="E109" s="30" t="s">
         <v>537</v>
       </c>
-      <c r="B109" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="53"/>
-      <c r="D109" s="54" t="s">
-        <v>532</v>
-      </c>
-      <c r="E109" s="55" t="s">
+    </row>
+    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="10" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="57" t="s">
+      <c r="B110" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B110" s="58" t="s">
+      <c r="C110" s="12"/>
+      <c r="D110" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="E110" s="30" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="C110" s="59"/>
-      <c r="D110" s="60" t="s">
-        <v>532</v>
-      </c>
-      <c r="E110" s="55" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="57" t="s">
+      <c r="B111" s="11" t="s">
         <v>541</v>
       </c>
-      <c r="B111" s="58" t="s">
-        <v>542</v>
-      </c>
-      <c r="C111" s="59"/>
+      <c r="C111" s="12"/>
       <c r="D111" s="29" t="s">
         <v>36</v>
       </c>
@@ -5370,15 +5334,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
@@ -5574,7 +5538,7 @@
         <v>458</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>457</v>
@@ -5829,7 +5793,7 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>468</v>
@@ -7256,58 +7220,58 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="57" t="s">
+      <c r="A125" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B125" s="58" t="s">
+      <c r="C125" s="42"/>
+      <c r="D125" s="25" t="s">
         <v>544</v>
-      </c>
-      <c r="C125" s="62"/>
-      <c r="D125" s="60" t="s">
-        <v>545</v>
       </c>
       <c r="E125" s="30" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" s="57" t="s">
+      <c r="A126" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B126" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B126" s="58" t="s">
+      <c r="C126" s="42"/>
+      <c r="D126" s="25" t="s">
         <v>547</v>
-      </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="60" t="s">
-        <v>548</v>
       </c>
       <c r="E126" s="30" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" s="57" t="s">
+      <c r="A127" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>549</v>
       </c>
-      <c r="B127" s="58" t="s">
+      <c r="C127" s="42"/>
+      <c r="D127" s="25" t="s">
         <v>550</v>
-      </c>
-      <c r="C127" s="62"/>
-      <c r="D127" s="60" t="s">
-        <v>551</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="61" t="s">
+      <c r="A128" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="B128" s="44" t="s">
         <v>554</v>
       </c>
-      <c r="B128" s="63" t="s">
-        <v>555</v>
-      </c>
-      <c r="C128" s="63"/>
+      <c r="C128" s="44"/>
       <c r="D128" s="29" t="s">
         <v>288</v>
       </c>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Gateway_Direct_Element_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88223039-1FCA-4726-A755-4E18388F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C655363A-6E8C-4B1E-AFBD-8EBCF281269C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{57FE6D09-CE71-4664-BF8B-95534C141409}"/>
   </bookViews>
@@ -1997,9 +1997,6 @@
     <t>previous_balance</t>
   </si>
   <si>
-    <t>blanaces.begginingBalance</t>
-  </si>
-  <si>
     <t>ValueLinkAuthCode</t>
   </si>
   <si>
@@ -2023,6 +2020,9 @@
   <si>
     <t>target.card.securityCode
 additionalDataCommon.additionalData.securityCodeType</t>
+  </si>
+  <si>
+    <t>balanaces.beginningBalance</t>
   </si>
 </sst>
 </file>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E107" s="30" t="s">
         <v>532</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E108" s="26" t="s">
         <v>535</v>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E109" s="30" t="s">
         <v>537</v>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E110" s="30" t="s">
         <v>537</v>
@@ -5317,10 +5317,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A10033-FA02-4621-BCA6-E2FC6A173885}">
   <dimension ref="A1:E128"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5538,7 +5538,7 @@
         <v>458</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>457</v>
@@ -5793,7 +5793,7 @@
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="29" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E30" s="30" t="s">
         <v>468</v>
@@ -7243,7 +7243,7 @@
       </c>
       <c r="C126" s="42"/>
       <c r="D126" s="25" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="E126" s="30" t="s">
         <v>468</v>
@@ -7251,14 +7251,14 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B127" s="11" t="s">
         <v>548</v>
-      </c>
-      <c r="B127" s="11" t="s">
-        <v>549</v>
       </c>
       <c r="C127" s="42"/>
       <c r="D127" s="25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>468</v>
@@ -7266,10 +7266,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="26" t="s">
+        <v>552</v>
+      </c>
+      <c r="B128" s="44" t="s">
         <v>553</v>
-      </c>
-      <c r="B128" s="44" t="s">
-        <v>554</v>
       </c>
       <c r="C128" s="44"/>
       <c r="D128" s="29" t="s">
